--- a/Excel_Data/2.xlsx
+++ b/Excel_Data/2.xlsx
@@ -5,14 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Saved Games\kursach\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Saved Games\GradWork\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,6 +24,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>T = 0.5</t>
+  </si>
+  <si>
+    <t>T = 1</t>
+  </si>
+  <si>
+    <t>T = 1.5</t>
+  </si>
+  <si>
+    <t>T = 2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,8 +78,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -88,38 +117,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -128,6 +126,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -142,66 +151,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$1:$A$19</c:f>
+              <c:f>Лист1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.9781479000000002E-2</c:v>
+                  <c:v>0.12860655100000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12929554900000001</c:v>
+                  <c:v>4.0159904000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15522751700000001</c:v>
+                  <c:v>3.0761482E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15883940699999999</c:v>
+                  <c:v>3.2080589E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15912933500000001</c:v>
+                  <c:v>3.2148706999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15916150300000001</c:v>
+                  <c:v>3.2215292E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.159161737</c:v>
+                  <c:v>3.221537E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15916175599999999</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15916175799999999</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15916175799999999</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15916175799999999</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15916175799999999</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.15916175799999999</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.15916175799999999</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.15916175799999999</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.15916175799999999</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.15916176000000001</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.15916455500000001</c:v>
+                  <c:v>3.2215343E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.15916455500000001</c:v>
+                  <c:v>3.2215343E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2215343E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -211,6 +223,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -225,66 +248,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$1:$B$19</c:f>
+              <c:f>Лист1!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.16083782399999999</c:v>
+                  <c:v>0.50616134999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26229192499999998</c:v>
+                  <c:v>0.29139865700000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32673652199999997</c:v>
+                  <c:v>0.22048114799999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34847642699999998</c:v>
+                  <c:v>0.229747388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35342389000000002</c:v>
+                  <c:v>0.23700928900000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35437579499999999</c:v>
+                  <c:v>0.23909171700000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35456428299999998</c:v>
+                  <c:v>0.23905536499999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35459626700000002</c:v>
+                  <c:v>0.239102747</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35460345399999998</c:v>
+                  <c:v>0.23911279999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35460504199999998</c:v>
+                  <c:v>0.23911487100000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35460538899999999</c:v>
+                  <c:v>0.239115296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35460546300000001</c:v>
+                  <c:v>0.23911538299999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.354605479</c:v>
+                  <c:v>0.23911540000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35460404000000001</c:v>
+                  <c:v>0.23910288299999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.35460404099999998</c:v>
+                  <c:v>0.23910288299999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.35460404099999998</c:v>
+                  <c:v>0.23910288399999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35460404299999998</c:v>
+                  <c:v>0.23910288399999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.35460404299999998</c:v>
+                  <c:v>0.23910288399999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.35460404299999998</c:v>
+                  <c:v>0.23910288399999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23910288399999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -294,6 +320,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -308,66 +345,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$1:$C$19</c:f>
+              <c:f>Лист1!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.34721216999999999</c:v>
+                  <c:v>0.98670907799999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.468617746</c:v>
+                  <c:v>0.80652002899999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56624429200000004</c:v>
+                  <c:v>0.64205165799999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63762189300000005</c:v>
+                  <c:v>0.70602313999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.674850477</c:v>
+                  <c:v>0.78627315600000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69179234199999995</c:v>
+                  <c:v>0.82873205400000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69917904099999995</c:v>
+                  <c:v>0.85049989800000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70248436700000005</c:v>
+                  <c:v>0.86085452500000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70392703000000001</c:v>
+                  <c:v>0.860258525</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70456220999999997</c:v>
+                  <c:v>0.85933168999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70483465499999998</c:v>
+                  <c:v>0.85985331799999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70495025700000002</c:v>
+                  <c:v>0.86006689300000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.70499887800000005</c:v>
+                  <c:v>0.86015311500000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.70501917800000002</c:v>
+                  <c:v>0.86018769500000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.70502759999999998</c:v>
+                  <c:v>0.86020150299999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.70503107700000001</c:v>
+                  <c:v>0.86020701099999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.70503250500000003</c:v>
+                  <c:v>0.86020920000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.70503308899999995</c:v>
+                  <c:v>0.86021006499999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.70502456999999996</c:v>
+                  <c:v>0.860009001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86000913300000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,6 +417,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -391,66 +442,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$1:$D$19</c:f>
+              <c:f>Лист1!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.56223274099999998</c:v>
+                  <c:v>1.37887468</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.775329131</c:v>
+                  <c:v>1.3811905179999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91350874500000001</c:v>
+                  <c:v>1.204372706</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0980775279999999</c:v>
+                  <c:v>1.440764081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2774891509999999</c:v>
+                  <c:v>1.844072224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.422296097</c:v>
+                  <c:v>2.2140574040000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5326029880000001</c:v>
+                  <c:v>2.5082710459999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.614581305</c:v>
+                  <c:v>2.732456209</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.67419823</c:v>
+                  <c:v>2.8882100909999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7173457009999999</c:v>
+                  <c:v>3.005277446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.748077637</c:v>
+                  <c:v>3.0821550680000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7694567510000001</c:v>
+                  <c:v>3.1349551029999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7845902300000001</c:v>
+                  <c:v>3.1725827290000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7950937179999999</c:v>
+                  <c:v>3.196329843</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8023381730000001</c:v>
+                  <c:v>3.2082232180000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.807071141</c:v>
+                  <c:v>3.2135334109999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8104597440000001</c:v>
+                  <c:v>3.2201323629999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.812763342</c:v>
+                  <c:v>3.2247391080000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.81432354</c:v>
+                  <c:v>3.2278067240000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2297245440000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,11 +520,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="867102576"/>
-        <c:axId val="760634064"/>
+        <c:axId val="267017056"/>
+        <c:axId val="267021408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="867102576"/>
+        <c:axId val="267017056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -513,7 +567,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="760634064"/>
+        <c:crossAx val="267021408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -521,7 +575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="760634064"/>
+        <c:axId val="267021408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +626,2652 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="867102576"/>
+        <c:crossAx val="267017056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.726094766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65749425299999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64973596300000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64921077400000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64919084800000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64918979399999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64918979499999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64918979499999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64918979499999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64918979499999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64918979499999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64918979499999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64918979499999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64918979499999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64918979499999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.64918979499999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64918979499999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64918912699999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64918912699999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64918912699999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.77923099500000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70308816299999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68276588800000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67956310499999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67921149800000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67917738299999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67918103200000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.679181005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67918100100000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67918100000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67918100000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67918100000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67918100000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67918102800000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67918102800000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67918102800000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67918102800000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67918102800000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67918102800000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67918102800000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.76195865500000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72159557299999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69852466599999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69120798500000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68939822799999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.688961508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68884653399999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68881520100000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68884809199999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68886024999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68885909499999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68885867000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68885851899999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.68885846500000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68885844500000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.68885843800000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68885843499999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68885843400000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68886019300000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68886019300000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.69563969699999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70259632100000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69399091599999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68358019000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67707563699999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67343326199999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67131917500000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67006593000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.669259987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66882967400000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66853244099999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66839808999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66829448599999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66826145299999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66825959599999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66829000999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66828373699999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66827689999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66827247599999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.66827026599999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="266815968"/>
+        <c:axId val="266818144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="266815968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266818144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="266818144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.64000000000000012"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266815968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист3!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.980650036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93825375899999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93053849799999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92972328100000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.929684552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92967836299999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92967836100000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92967836100000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92967836100000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92967836100000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92967836100000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92967836100000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92967836100000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92967836100000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92967836100000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92967836100000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92967836100000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92967836400000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92967836400000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92967836400000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист3!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.92058611199999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88725318799999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87169902200000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86771158800000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86704340599999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.866945615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.866954844</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86695420099999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86695408299999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86695406200000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86695405800000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86695405699999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86695405699999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86695502999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86695502999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86695502999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86695502999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86695502999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86695502999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86695502999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист3!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.82840527399999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82306905100000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81183950299999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80296807800000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79922856099999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79802217600000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79758105000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79741544499999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79749990500000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79754134099999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79753589199999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79753387099999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79753313400000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79753286599999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79753276699999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.79753273099999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.79753271699999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.79753271199999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79754003100000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79754002999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист3!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист3!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.72296543400000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73764036499999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74461753399999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73035262899999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71596585700000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70636421999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70032646899999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69654961299999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.694274218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.692845924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69198630299999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.691523938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69119294899999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69104728800000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69101715699999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69107229400000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69104395500000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.69102011900000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.69100509600000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.690997313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="496652592"/>
+        <c:axId val="496654224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="496652592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496654224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496654224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.65000000000000013"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496652592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист4!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.267415925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28378962299999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28329694399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28314011300000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28313070800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28312908399999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28312975099999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28312975099999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28312975099999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист4!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.18736978500000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20104085099999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.201050583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20058846499999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.200479186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20046003400000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20046164499999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20046149399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.200461466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20046146100000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20046146000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20046145900000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20046145900000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20046145500000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20046145500000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20046145500000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20046145500000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20046145500000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20046145500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20046145500000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист4!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.148672375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14215206699999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14079139900000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.139662909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13910614399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13890459699999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13882782799999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.138799265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13880811900000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.138813505</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13881253199999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13881217200000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13881204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.138811992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.138811975</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13881196800000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13881196600000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13881196500000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13881262999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13881262999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист4!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.13339302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.101552237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5899423999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3306976999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1420151000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0177816999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9392445000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8896958999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8599724000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8412490999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8300043999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8236551999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8193360999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8173197999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.8167835999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.8170603E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.8166570999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8163399000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.8161404999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.8160349999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="496656944"/>
+        <c:axId val="496657488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="496656944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496657488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496657488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
+          <c:min val="5.000000000000001E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496656944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -693,6 +3392,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1209,20 +4028,1673 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1507,278 +5979,1491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>3.9781479000000002E-2</v>
-      </c>
-      <c r="B1">
-        <v>0.16083782399999999</v>
-      </c>
-      <c r="C1">
-        <v>0.34721216999999999</v>
-      </c>
-      <c r="D1">
-        <v>0.56223274099999998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0.12929554900000001</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.26229192499999998</v>
+        <v>0.12860655100000001</v>
       </c>
       <c r="C2">
-        <v>0.468617746</v>
+        <v>0.50616134999999995</v>
       </c>
       <c r="D2">
-        <v>0.775329131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.15522751700000001</v>
+        <v>0.98670907799999996</v>
+      </c>
+      <c r="E2">
+        <v>1.37887468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.32673652199999997</v>
+        <v>4.0159904000000003E-2</v>
       </c>
       <c r="C3">
-        <v>0.56624429200000004</v>
+        <v>0.29139865700000001</v>
       </c>
       <c r="D3">
-        <v>0.91350874500000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.15883940699999999</v>
+        <v>0.80652002899999997</v>
+      </c>
+      <c r="E3">
+        <v>1.3811905179999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.34847642699999998</v>
+        <v>3.0761482E-2</v>
       </c>
       <c r="C4">
-        <v>0.63762189300000005</v>
+        <v>0.22048114799999999</v>
       </c>
       <c r="D4">
-        <v>1.0980775279999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0.15912933500000001</v>
+        <v>0.64205165799999997</v>
+      </c>
+      <c r="E4">
+        <v>1.204372706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.35342389000000002</v>
+        <v>3.2080589E-2</v>
       </c>
       <c r="C5">
-        <v>0.674850477</v>
+        <v>0.229747388</v>
       </c>
       <c r="D5">
-        <v>1.2774891509999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.15916150300000001</v>
+        <v>0.70602313999999999</v>
+      </c>
+      <c r="E5">
+        <v>1.440764081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.35437579499999999</v>
+        <v>3.2148706999999999E-2</v>
       </c>
       <c r="C6">
-        <v>0.69179234199999995</v>
+        <v>0.23700928900000001</v>
       </c>
       <c r="D6">
-        <v>1.422296097</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.159161737</v>
+        <v>0.78627315600000003</v>
+      </c>
+      <c r="E6">
+        <v>1.844072224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.35456428299999998</v>
+        <v>3.2215292E-2</v>
       </c>
       <c r="C7">
-        <v>0.69917904099999995</v>
+        <v>0.23909171700000001</v>
       </c>
       <c r="D7">
-        <v>1.5326029880000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.15916175599999999</v>
+        <v>0.82873205400000005</v>
+      </c>
+      <c r="E7">
+        <v>2.2140574040000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.35459626700000002</v>
+        <v>3.221537E-2</v>
       </c>
       <c r="C8">
-        <v>0.70248436700000005</v>
+        <v>0.23905536499999999</v>
       </c>
       <c r="D8">
-        <v>1.614581305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0.15916175799999999</v>
+        <v>0.85049989800000003</v>
+      </c>
+      <c r="E8">
+        <v>2.5082710459999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.35460345399999998</v>
+        <v>3.2215375999999997E-2</v>
       </c>
       <c r="C9">
-        <v>0.70392703000000001</v>
+        <v>0.239102747</v>
       </c>
       <c r="D9">
-        <v>1.67419823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0.15916175799999999</v>
+        <v>0.86085452500000004</v>
+      </c>
+      <c r="E9">
+        <v>2.732456209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0.35460504199999998</v>
+        <v>3.2215375999999997E-2</v>
       </c>
       <c r="C10">
-        <v>0.70456220999999997</v>
+        <v>0.23911279999999999</v>
       </c>
       <c r="D10">
-        <v>1.7173457009999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0.15916175799999999</v>
+        <v>0.860258525</v>
+      </c>
+      <c r="E10">
+        <v>2.8882100909999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.35460538899999999</v>
+        <v>3.2215375999999997E-2</v>
       </c>
       <c r="C11">
-        <v>0.70483465499999998</v>
+        <v>0.23911487100000001</v>
       </c>
       <c r="D11">
-        <v>1.748077637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0.15916175799999999</v>
+        <v>0.85933168999999998</v>
+      </c>
+      <c r="E11">
+        <v>3.005277446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.35460546300000001</v>
+        <v>3.2215375999999997E-2</v>
       </c>
       <c r="C12">
-        <v>0.70495025700000002</v>
+        <v>0.239115296</v>
       </c>
       <c r="D12">
-        <v>1.7694567510000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0.15916175799999999</v>
+        <v>0.85985331799999998</v>
+      </c>
+      <c r="E12">
+        <v>3.0821550680000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0.354605479</v>
+        <v>3.2215375999999997E-2</v>
       </c>
       <c r="C13">
-        <v>0.70499887800000005</v>
+        <v>0.23911538299999999</v>
       </c>
       <c r="D13">
-        <v>1.7845902300000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>0.15916175799999999</v>
+        <v>0.86006689300000005</v>
+      </c>
+      <c r="E13">
+        <v>3.1349551029999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>0.35460404000000001</v>
+        <v>3.2215375999999997E-2</v>
       </c>
       <c r="C14">
-        <v>0.70501917800000002</v>
+        <v>0.23911540000000001</v>
       </c>
       <c r="D14">
-        <v>1.7950937179999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0.15916175799999999</v>
+        <v>0.86015311500000002</v>
+      </c>
+      <c r="E14">
+        <v>3.1725827290000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>0.35460404099999998</v>
+        <v>3.2215375999999997E-2</v>
       </c>
       <c r="C15">
-        <v>0.70502759999999998</v>
+        <v>0.23910288299999999</v>
       </c>
       <c r="D15">
-        <v>1.8023381730000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0.15916175799999999</v>
+        <v>0.86018769500000003</v>
+      </c>
+      <c r="E15">
+        <v>3.196329843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0.35460404099999998</v>
+        <v>3.2215375999999997E-2</v>
       </c>
       <c r="C16">
-        <v>0.70503107700000001</v>
+        <v>0.23910288299999999</v>
       </c>
       <c r="D16">
-        <v>1.807071141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0.15916176000000001</v>
+        <v>0.86020150299999998</v>
+      </c>
+      <c r="E16">
+        <v>3.2082232180000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0.35460404299999998</v>
+        <v>3.2215375999999997E-2</v>
       </c>
       <c r="C17">
-        <v>0.70503250500000003</v>
+        <v>0.23910288399999999</v>
       </c>
       <c r="D17">
-        <v>1.8104597440000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0.15916455500000001</v>
+        <v>0.86020701099999997</v>
+      </c>
+      <c r="E17">
+        <v>3.2135334109999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.35460404299999998</v>
+        <v>3.2215375999999997E-2</v>
       </c>
       <c r="C18">
-        <v>0.70503308899999995</v>
+        <v>0.23910288399999999</v>
       </c>
       <c r="D18">
-        <v>1.812763342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0.15916455500000001</v>
+        <v>0.86020920000000001</v>
+      </c>
+      <c r="E18">
+        <v>3.2201323629999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.35460404299999998</v>
+        <v>3.2215343E-2</v>
       </c>
       <c r="C19">
-        <v>0.70502456999999996</v>
+        <v>0.23910288399999999</v>
       </c>
       <c r="D19">
-        <v>1.81432354</v>
+        <v>0.86021006499999997</v>
+      </c>
+      <c r="E19">
+        <v>3.2247391080000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3.2215343E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.23910288399999999</v>
+      </c>
+      <c r="D20">
+        <v>0.860009001</v>
+      </c>
+      <c r="E20">
+        <v>3.2278067240000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3.2215343E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.23910288399999999</v>
+      </c>
+      <c r="D21">
+        <v>0.86000913300000004</v>
+      </c>
+      <c r="E21">
+        <v>3.2297245440000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.726094766</v>
+      </c>
+      <c r="C2">
+        <v>0.77923099500000004</v>
+      </c>
+      <c r="D2">
+        <v>0.76195865500000004</v>
+      </c>
+      <c r="E2">
+        <v>0.69563969699999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.65749425299999997</v>
+      </c>
+      <c r="C3">
+        <v>0.70308816299999999</v>
+      </c>
+      <c r="D3">
+        <v>0.72159557299999999</v>
+      </c>
+      <c r="E3">
+        <v>0.70259632100000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.64973596300000003</v>
+      </c>
+      <c r="C4">
+        <v>0.68276588800000004</v>
+      </c>
+      <c r="D4">
+        <v>0.69852466599999996</v>
+      </c>
+      <c r="E4">
+        <v>0.69399091599999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.64921077400000005</v>
+      </c>
+      <c r="C5">
+        <v>0.67956310499999995</v>
+      </c>
+      <c r="D5">
+        <v>0.69120798500000002</v>
+      </c>
+      <c r="E5">
+        <v>0.68358019000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.64919084800000004</v>
+      </c>
+      <c r="C6">
+        <v>0.67921149800000002</v>
+      </c>
+      <c r="D6">
+        <v>0.68939822799999995</v>
+      </c>
+      <c r="E6">
+        <v>0.67707563699999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.64918979399999999</v>
+      </c>
+      <c r="C7">
+        <v>0.67917738299999997</v>
+      </c>
+      <c r="D7">
+        <v>0.688961508</v>
+      </c>
+      <c r="E7">
+        <v>0.67343326199999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.64918979499999996</v>
+      </c>
+      <c r="C8">
+        <v>0.67918103200000002</v>
+      </c>
+      <c r="D8">
+        <v>0.68884653399999995</v>
+      </c>
+      <c r="E8">
+        <v>0.67131917500000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.64918979499999996</v>
+      </c>
+      <c r="C9">
+        <v>0.679181005</v>
+      </c>
+      <c r="D9">
+        <v>0.68881520100000004</v>
+      </c>
+      <c r="E9">
+        <v>0.67006593000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.64918979499999996</v>
+      </c>
+      <c r="C10">
+        <v>0.67918100100000001</v>
+      </c>
+      <c r="D10">
+        <v>0.68884809199999997</v>
+      </c>
+      <c r="E10">
+        <v>0.669259987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.64918979499999996</v>
+      </c>
+      <c r="C11">
+        <v>0.67918100000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.68886024999999995</v>
+      </c>
+      <c r="E11">
+        <v>0.66882967400000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.64918979499999996</v>
+      </c>
+      <c r="C12">
+        <v>0.67918100000000003</v>
+      </c>
+      <c r="D12">
+        <v>0.68885909499999998</v>
+      </c>
+      <c r="E12">
+        <v>0.66853244099999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.64918979499999996</v>
+      </c>
+      <c r="C13">
+        <v>0.67918100000000003</v>
+      </c>
+      <c r="D13">
+        <v>0.68885867000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.66839808999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.64918979499999996</v>
+      </c>
+      <c r="C14">
+        <v>0.67918100000000003</v>
+      </c>
+      <c r="D14">
+        <v>0.68885851899999995</v>
+      </c>
+      <c r="E14">
+        <v>0.66829448599999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.64918979499999996</v>
+      </c>
+      <c r="C15">
+        <v>0.67918102800000002</v>
+      </c>
+      <c r="D15">
+        <v>0.68885846500000003</v>
+      </c>
+      <c r="E15">
+        <v>0.66826145299999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.64918979499999996</v>
+      </c>
+      <c r="C16">
+        <v>0.67918102800000002</v>
+      </c>
+      <c r="D16">
+        <v>0.68885844500000004</v>
+      </c>
+      <c r="E16">
+        <v>0.66825959599999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.64918979499999996</v>
+      </c>
+      <c r="C17">
+        <v>0.67918102800000002</v>
+      </c>
+      <c r="D17">
+        <v>0.68885843800000002</v>
+      </c>
+      <c r="E17">
+        <v>0.66829000999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.64918979499999996</v>
+      </c>
+      <c r="C18">
+        <v>0.67918102800000002</v>
+      </c>
+      <c r="D18">
+        <v>0.68885843499999999</v>
+      </c>
+      <c r="E18">
+        <v>0.66828373699999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.64918912699999998</v>
+      </c>
+      <c r="C19">
+        <v>0.67918102800000002</v>
+      </c>
+      <c r="D19">
+        <v>0.68885843400000002</v>
+      </c>
+      <c r="E19">
+        <v>0.66827689999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.64918912699999998</v>
+      </c>
+      <c r="C20">
+        <v>0.67918102800000002</v>
+      </c>
+      <c r="D20">
+        <v>0.68886019300000001</v>
+      </c>
+      <c r="E20">
+        <v>0.66827247599999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.64918912699999998</v>
+      </c>
+      <c r="C21">
+        <v>0.67918102800000002</v>
+      </c>
+      <c r="D21">
+        <v>0.68886019300000001</v>
+      </c>
+      <c r="E21">
+        <v>0.66827026599999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.980650036</v>
+      </c>
+      <c r="C2">
+        <v>0.92058611199999996</v>
+      </c>
+      <c r="D2">
+        <v>0.82840527399999997</v>
+      </c>
+      <c r="E2">
+        <v>0.72296543400000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.93825375899999996</v>
+      </c>
+      <c r="C3">
+        <v>0.88725318799999997</v>
+      </c>
+      <c r="D3">
+        <v>0.82306905100000005</v>
+      </c>
+      <c r="E3">
+        <v>0.73764036499999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.93053849799999999</v>
+      </c>
+      <c r="C4">
+        <v>0.87169902200000005</v>
+      </c>
+      <c r="D4">
+        <v>0.81183950299999996</v>
+      </c>
+      <c r="E4">
+        <v>0.74461753399999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.92972328100000001</v>
+      </c>
+      <c r="C5">
+        <v>0.86771158800000003</v>
+      </c>
+      <c r="D5">
+        <v>0.80296807800000003</v>
+      </c>
+      <c r="E5">
+        <v>0.73035262899999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.929684552</v>
+      </c>
+      <c r="C6">
+        <v>0.86704340599999996</v>
+      </c>
+      <c r="D6">
+        <v>0.79922856099999995</v>
+      </c>
+      <c r="E6">
+        <v>0.71596585700000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.92967836299999995</v>
+      </c>
+      <c r="C7">
+        <v>0.866945615</v>
+      </c>
+      <c r="D7">
+        <v>0.79802217600000003</v>
+      </c>
+      <c r="E7">
+        <v>0.70636421999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.92967836100000001</v>
+      </c>
+      <c r="C8">
+        <v>0.866954844</v>
+      </c>
+      <c r="D8">
+        <v>0.79758105000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.70032646899999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.92967836100000001</v>
+      </c>
+      <c r="C9">
+        <v>0.86695420099999998</v>
+      </c>
+      <c r="D9">
+        <v>0.79741544499999994</v>
+      </c>
+      <c r="E9">
+        <v>0.69654961299999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.92967836100000001</v>
+      </c>
+      <c r="C10">
+        <v>0.86695408299999999</v>
+      </c>
+      <c r="D10">
+        <v>0.79749990500000001</v>
+      </c>
+      <c r="E10">
+        <v>0.694274218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.92967836100000001</v>
+      </c>
+      <c r="C11">
+        <v>0.86695406200000003</v>
+      </c>
+      <c r="D11">
+        <v>0.79754134099999996</v>
+      </c>
+      <c r="E11">
+        <v>0.692845924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.92967836100000001</v>
+      </c>
+      <c r="C12">
+        <v>0.86695405800000003</v>
+      </c>
+      <c r="D12">
+        <v>0.79753589199999997</v>
+      </c>
+      <c r="E12">
+        <v>0.69198630299999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.92967836100000001</v>
+      </c>
+      <c r="C13">
+        <v>0.86695405699999994</v>
+      </c>
+      <c r="D13">
+        <v>0.79753387099999995</v>
+      </c>
+      <c r="E13">
+        <v>0.691523938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.92967836100000001</v>
+      </c>
+      <c r="C14">
+        <v>0.86695405699999994</v>
+      </c>
+      <c r="D14">
+        <v>0.79753313400000003</v>
+      </c>
+      <c r="E14">
+        <v>0.69119294899999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.92967836100000001</v>
+      </c>
+      <c r="C15">
+        <v>0.86695502999999996</v>
+      </c>
+      <c r="D15">
+        <v>0.79753286599999995</v>
+      </c>
+      <c r="E15">
+        <v>0.69104728800000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.92967836100000001</v>
+      </c>
+      <c r="C16">
+        <v>0.86695502999999996</v>
+      </c>
+      <c r="D16">
+        <v>0.79753276699999998</v>
+      </c>
+      <c r="E16">
+        <v>0.69101715699999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.92967836100000001</v>
+      </c>
+      <c r="C17">
+        <v>0.86695502999999996</v>
+      </c>
+      <c r="D17">
+        <v>0.79753273099999999</v>
+      </c>
+      <c r="E17">
+        <v>0.69107229400000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.92967836100000001</v>
+      </c>
+      <c r="C18">
+        <v>0.86695502999999996</v>
+      </c>
+      <c r="D18">
+        <v>0.79753271699999995</v>
+      </c>
+      <c r="E18">
+        <v>0.69104395500000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.92967836400000003</v>
+      </c>
+      <c r="C19">
+        <v>0.86695502999999996</v>
+      </c>
+      <c r="D19">
+        <v>0.79753271199999998</v>
+      </c>
+      <c r="E19">
+        <v>0.69102011900000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.92967836400000003</v>
+      </c>
+      <c r="C20">
+        <v>0.86695502999999996</v>
+      </c>
+      <c r="D20">
+        <v>0.79754003100000004</v>
+      </c>
+      <c r="E20">
+        <v>0.69100509600000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.92967836400000003</v>
+      </c>
+      <c r="C21">
+        <v>0.86695502999999996</v>
+      </c>
+      <c r="D21">
+        <v>0.79754002999999996</v>
+      </c>
+      <c r="E21">
+        <v>0.690997313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.267415925</v>
+      </c>
+      <c r="C2">
+        <v>0.18736978500000001</v>
+      </c>
+      <c r="D2">
+        <v>0.148672375</v>
+      </c>
+      <c r="E2">
+        <v>0.13339302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.28378962299999999</v>
+      </c>
+      <c r="C3">
+        <v>0.20104085099999999</v>
+      </c>
+      <c r="D3">
+        <v>0.14215206699999999</v>
+      </c>
+      <c r="E3">
+        <v>0.101552237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.28329694399999999</v>
+      </c>
+      <c r="C4">
+        <v>0.201050583</v>
+      </c>
+      <c r="D4">
+        <v>0.14079139900000001</v>
+      </c>
+      <c r="E4">
+        <v>9.5899423999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.28314011300000003</v>
+      </c>
+      <c r="C5">
+        <v>0.20058846499999999</v>
+      </c>
+      <c r="D5">
+        <v>0.139662909</v>
+      </c>
+      <c r="E5">
+        <v>9.3306976999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.28313070800000001</v>
+      </c>
+      <c r="C6">
+        <v>0.200479186</v>
+      </c>
+      <c r="D6">
+        <v>0.13910614399999999</v>
+      </c>
+      <c r="E6">
+        <v>9.1420151000000005E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.28312908399999998</v>
+      </c>
+      <c r="C7">
+        <v>0.20046003400000001</v>
+      </c>
+      <c r="D7">
+        <v>0.13890459699999999</v>
+      </c>
+      <c r="E7">
+        <v>9.0177816999999993E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.283129083</v>
+      </c>
+      <c r="C8">
+        <v>0.20046164499999999</v>
+      </c>
+      <c r="D8">
+        <v>0.13882782799999999</v>
+      </c>
+      <c r="E8">
+        <v>8.9392445000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.283129083</v>
+      </c>
+      <c r="C9">
+        <v>0.20046149399999999</v>
+      </c>
+      <c r="D9">
+        <v>0.138799265</v>
+      </c>
+      <c r="E9">
+        <v>8.8896958999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.283129083</v>
+      </c>
+      <c r="C10">
+        <v>0.200461466</v>
+      </c>
+      <c r="D10">
+        <v>0.13880811900000001</v>
+      </c>
+      <c r="E10">
+        <v>8.8599724000000005E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.283129083</v>
+      </c>
+      <c r="C11">
+        <v>0.20046146100000001</v>
+      </c>
+      <c r="D11">
+        <v>0.138813505</v>
+      </c>
+      <c r="E11">
+        <v>8.8412490999999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.283129083</v>
+      </c>
+      <c r="C12">
+        <v>0.20046146000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.13881253199999999</v>
+      </c>
+      <c r="E12">
+        <v>8.8300043999999994E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.283129083</v>
+      </c>
+      <c r="C13">
+        <v>0.20046145900000001</v>
+      </c>
+      <c r="D13">
+        <v>0.13881217200000001</v>
+      </c>
+      <c r="E13">
+        <v>8.8236551999999996E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.283129083</v>
+      </c>
+      <c r="C14">
+        <v>0.20046145900000001</v>
+      </c>
+      <c r="D14">
+        <v>0.13881204</v>
+      </c>
+      <c r="E14">
+        <v>8.8193360999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.283129083</v>
+      </c>
+      <c r="C15">
+        <v>0.20046145500000001</v>
+      </c>
+      <c r="D15">
+        <v>0.138811992</v>
+      </c>
+      <c r="E15">
+        <v>8.8173197999999994E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.283129083</v>
+      </c>
+      <c r="C16">
+        <v>0.20046145500000001</v>
+      </c>
+      <c r="D16">
+        <v>0.138811975</v>
+      </c>
+      <c r="E16">
+        <v>8.8167835999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.283129083</v>
+      </c>
+      <c r="C17">
+        <v>0.20046145500000001</v>
+      </c>
+      <c r="D17">
+        <v>0.13881196800000001</v>
+      </c>
+      <c r="E17">
+        <v>8.8170603E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.283129083</v>
+      </c>
+      <c r="C18">
+        <v>0.20046145500000001</v>
+      </c>
+      <c r="D18">
+        <v>0.13881196600000001</v>
+      </c>
+      <c r="E18">
+        <v>8.8166570999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.28312975099999999</v>
+      </c>
+      <c r="C19">
+        <v>0.20046145500000001</v>
+      </c>
+      <c r="D19">
+        <v>0.13881196500000001</v>
+      </c>
+      <c r="E19">
+        <v>8.8163399000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.28312975099999999</v>
+      </c>
+      <c r="C20">
+        <v>0.20046145500000001</v>
+      </c>
+      <c r="D20">
+        <v>0.13881262999999999</v>
+      </c>
+      <c r="E20">
+        <v>8.8161404999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.28312975099999999</v>
+      </c>
+      <c r="C21">
+        <v>0.20046145500000001</v>
+      </c>
+      <c r="D21">
+        <v>0.13881262999999999</v>
+      </c>
+      <c r="E21">
+        <v>8.8160349999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Data/2.xlsx
+++ b/Excel_Data/2.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9372"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>K</t>
   </si>
@@ -128,7 +129,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$B$1</c:f>
+              <c:f>Лист5!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -149,71 +150,140 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$21</c:f>
+              <c:f>Лист5!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.12860655100000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0159904000000003E-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0761482E-2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2080589E-2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2148706999999999E-2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2215292E-2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.221537E-2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2215343E-2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2215343E-2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2215343E-2</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист5!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.89159839299999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88649849000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78476864599999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71030030700000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66031703399999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62660321699999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60356510100000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58764697899999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57654287900000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56872575199999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56319391699999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55923497200000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55639856399999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55434677200000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55285921000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55177585600000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55097579600000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55039095699999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.549955207</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.54963043499999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -225,7 +295,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$1</c:f>
+              <c:f>Лист5!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -246,71 +316,140 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$21</c:f>
+              <c:f>Лист5!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.50616134999999995</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29139865700000001</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22048114799999999</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.229747388</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23700928900000001</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23909171700000001</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23905536499999999</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.239102747</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23911279999999999</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23911487100000001</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.239115296</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.23911538299999999</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23911540000000001</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.23910288299999999</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.23910288299999999</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.23910288399999999</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.23910288399999999</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.23910288399999999</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.23910288399999999</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.23910288399999999</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист5!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.84578794700000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97297827100000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92492790899999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88369139100000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86093504899999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84941587900000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84370419799999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84088365099999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83947799499999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83876762500000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83841194799999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.838229106</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83814010400000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83809098900000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83807003999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83805931300000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83805546600000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83805228799999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83805280800000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.83805343700000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -322,7 +461,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$D$1</c:f>
+              <c:f>Лист5!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -343,9 +482,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист5!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$21</c:f>
+              <c:f>Лист5!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -419,7 +627,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$E$1</c:f>
+              <c:f>Лист5!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -440,9 +648,78 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист5!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$21</c:f>
+              <c:f>Лист5!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -520,11 +797,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="267017056"/>
-        <c:axId val="267021408"/>
+        <c:axId val="-268916304"/>
+        <c:axId val="-268909776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="267017056"/>
+        <c:axId val="-268916304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -567,7 +844,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267021408"/>
+        <c:crossAx val="-268909776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -575,7 +852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267021408"/>
+        <c:axId val="-268909776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,7 +903,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267017056"/>
+        <c:crossAx val="-268916304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -732,7 +1009,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$B$1</c:f>
+              <c:f>Лист1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -753,140 +1030,71 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Лист2!$A$2:$A$21</c:f>
+              <c:f>Лист1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.12860655100000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4.0159904000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0761482E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>3.2080589E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>3.2148706999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>3.2215292E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>3.221537E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>3.2215375999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>3.2215343E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>3.2215343E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист2!$B$2:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.726094766</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65749425299999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.64973596300000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.64921077400000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.64919084800000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64918979399999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.64918979499999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.64918979499999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.64918979499999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.64918979499999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.64918979499999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.64918979499999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.64918979499999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.64918979499999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.64918979499999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.64918979499999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.64918979499999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.64918912699999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.64918912699999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.64918912699999998</c:v>
+                  <c:v>3.2215343E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,7 +1106,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$C$1</c:f>
+              <c:f>Лист1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -919,140 +1127,71 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Лист2!$A$2:$A$21</c:f>
+              <c:f>Лист1!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.50616134999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0.29139865700000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0.22048114799999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0.229747388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0.23700928900000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>0.23909171700000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>0.23905536499999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>0.239102747</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>0.23911279999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>0.23911487100000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>0.239115296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>0.23911538299999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>0.23911540000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>0.23910288299999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>0.23910288299999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>0.23910288399999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>0.23910288399999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>0.23910288399999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>0.23910288399999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист2!$C$2:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.77923099500000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70308816299999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.68276588800000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67956310499999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.67921149800000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.67917738299999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.67918103200000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.679181005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.67918100100000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.67918100000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.67918100000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.67918100000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.67918100000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.67918102800000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.67918102800000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.67918102800000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.67918102800000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.67918102800000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.67918102800000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.67918102800000002</c:v>
+                  <c:v>0.23910288399999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1064,7 +1203,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$D$1</c:f>
+              <c:f>Лист1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1085,140 +1224,71 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Лист2!$A$2:$A$21</c:f>
+              <c:f>Лист1!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.98670907799999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0.80652002899999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0.64205165799999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0.70602313999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0.78627315600000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>0.82873205400000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>0.85049989800000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>0.86085452500000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>0.860258525</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>0.85933168999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>0.85985331799999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>0.86006689300000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>0.86015311500000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>0.86018769500000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>0.86020150299999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>0.86020701099999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>0.86020920000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>0.86021006499999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>0.860009001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист2!$D$2:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.76195865500000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72159557299999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69852466599999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.69120798500000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68939822799999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.688961508</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.68884653399999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.68881520100000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.68884809199999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.68886024999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.68885909499999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.68885867000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.68885851899999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.68885846500000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.68885844500000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.68885843800000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.68885843499999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.68885843400000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.68886019300000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.68886019300000001</c:v>
+                  <c:v>0.86000913300000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,7 +1300,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$E$1</c:f>
+              <c:f>Лист1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1251,140 +1321,71 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Лист2!$A$2:$A$21</c:f>
+              <c:f>Лист1!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.37887468</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1.3811905179999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1.204372706</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>1.440764081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>1.844072224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>2.2140574040000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>2.5082710459999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>2.732456209</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>2.8882100909999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>3.005277446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>3.0821550680000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>3.1349551029999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>3.1725827290000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>3.196329843</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>3.2082232180000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>3.2135334109999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>3.2201323629999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>3.2247391080000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>3.2278067240000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист2!$E$2:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.69563969699999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70259632100000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69399091599999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.68358019000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.67707563699999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.67343326199999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.67131917500000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.67006593000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.669259987</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.66882967400000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.66853244099999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.66839808999999994</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.66829448599999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.66826145299999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.66825959599999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.66829000999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.66828373699999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.66827689999999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.66827247599999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.66827026599999995</c:v>
+                  <c:v>3.2297245440000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,11 +1401,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="266815968"/>
-        <c:axId val="266818144"/>
+        <c:axId val="-516952208"/>
+        <c:axId val="-516951664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266815968"/>
+        <c:axId val="-516952208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +1448,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266818144"/>
+        <c:crossAx val="-516951664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1455,10 +1456,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266818144"/>
+        <c:axId val="-516951664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.64000000000000012"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1507,7 +1507,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266815968"/>
+        <c:crossAx val="-516952208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1613,7 +1613,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист3!$B$1</c:f>
+              <c:f>Лист2!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1636,7 +1636,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист3!$A$2:$A$21</c:f>
+              <c:f>Лист2!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1705,69 +1705,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист3!$B$2:$B$21</c:f>
+              <c:f>Лист2!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.980650036</c:v>
+                  <c:v>0.726094766</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93825375899999996</c:v>
+                  <c:v>0.65749425299999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93053849799999999</c:v>
+                  <c:v>0.64973596300000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92972328100000001</c:v>
+                  <c:v>0.64921077400000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.929684552</c:v>
+                  <c:v>0.64919084800000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92967836299999995</c:v>
+                  <c:v>0.64918979399999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.64918979499999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.64918979499999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.64918979499999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.64918979499999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.64918979499999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.64918979499999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.64918979499999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.64918979499999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.64918979499999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.64918979499999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.64918979499999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92967836400000003</c:v>
+                  <c:v>0.64918912699999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92967836400000003</c:v>
+                  <c:v>0.64918912699999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92967836400000003</c:v>
+                  <c:v>0.64918912699999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1779,7 +1779,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист3!$C$1</c:f>
+              <c:f>Лист2!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1802,7 +1802,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист3!$A$2:$A$21</c:f>
+              <c:f>Лист2!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1871,69 +1871,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист3!$C$2:$C$21</c:f>
+              <c:f>Лист2!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.92058611199999996</c:v>
+                  <c:v>0.77923099500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88725318799999997</c:v>
+                  <c:v>0.70308816299999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87169902200000005</c:v>
+                  <c:v>0.68276588800000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86771158800000003</c:v>
+                  <c:v>0.67956310499999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86704340599999996</c:v>
+                  <c:v>0.67921149800000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.866945615</c:v>
+                  <c:v>0.67917738299999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.866954844</c:v>
+                  <c:v>0.67918103200000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86695420099999998</c:v>
+                  <c:v>0.679181005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86695408299999999</c:v>
+                  <c:v>0.67918100100000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86695406200000003</c:v>
+                  <c:v>0.67918100000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.86695405800000003</c:v>
+                  <c:v>0.67918100000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86695405699999994</c:v>
+                  <c:v>0.67918100000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.86695405699999994</c:v>
+                  <c:v>0.67918100000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.86695502999999996</c:v>
+                  <c:v>0.67918102800000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.86695502999999996</c:v>
+                  <c:v>0.67918102800000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.86695502999999996</c:v>
+                  <c:v>0.67918102800000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86695502999999996</c:v>
+                  <c:v>0.67918102800000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.86695502999999996</c:v>
+                  <c:v>0.67918102800000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.86695502999999996</c:v>
+                  <c:v>0.67918102800000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.86695502999999996</c:v>
+                  <c:v>0.67918102800000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,7 +1945,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист3!$D$1</c:f>
+              <c:f>Лист2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1968,7 +1968,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист3!$A$2:$A$21</c:f>
+              <c:f>Лист2!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2037,69 +2037,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист3!$D$2:$D$21</c:f>
+              <c:f>Лист2!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.82840527399999997</c:v>
+                  <c:v>0.76195865500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82306905100000005</c:v>
+                  <c:v>0.72159557299999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81183950299999996</c:v>
+                  <c:v>0.69852466599999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80296807800000003</c:v>
+                  <c:v>0.69120798500000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79922856099999995</c:v>
+                  <c:v>0.68939822799999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79802217600000003</c:v>
+                  <c:v>0.688961508</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79758105000000001</c:v>
+                  <c:v>0.68884653399999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.79741544499999994</c:v>
+                  <c:v>0.68881520100000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79749990500000001</c:v>
+                  <c:v>0.68884809199999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79754134099999996</c:v>
+                  <c:v>0.68886024999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79753589199999997</c:v>
+                  <c:v>0.68885909499999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.79753387099999995</c:v>
+                  <c:v>0.68885867000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.79753313400000003</c:v>
+                  <c:v>0.68885851899999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79753286599999995</c:v>
+                  <c:v>0.68885846500000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.79753276699999998</c:v>
+                  <c:v>0.68885844500000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.79753273099999999</c:v>
+                  <c:v>0.68885843800000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.79753271699999995</c:v>
+                  <c:v>0.68885843499999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.79753271199999998</c:v>
+                  <c:v>0.68885843400000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.79754003100000004</c:v>
+                  <c:v>0.68886019300000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.79754002999999996</c:v>
+                  <c:v>0.68886019300000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,7 +2111,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист3!$E$1</c:f>
+              <c:f>Лист2!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2134,7 +2134,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист3!$A$2:$A$21</c:f>
+              <c:f>Лист2!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2203,69 +2203,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист3!$E$2:$E$21</c:f>
+              <c:f>Лист2!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.72296543400000002</c:v>
+                  <c:v>0.69563969699999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73764036499999996</c:v>
+                  <c:v>0.70259632100000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74461753399999997</c:v>
+                  <c:v>0.69399091599999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73035262899999998</c:v>
+                  <c:v>0.68358019000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71596585700000004</c:v>
+                  <c:v>0.67707563699999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70636421999999999</c:v>
+                  <c:v>0.67343326199999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70032646899999995</c:v>
+                  <c:v>0.67131917500000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69654961299999996</c:v>
+                  <c:v>0.67006593000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.694274218</c:v>
+                  <c:v>0.669259987</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.692845924</c:v>
+                  <c:v>0.66882967400000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69198630299999997</c:v>
+                  <c:v>0.66853244099999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.691523938</c:v>
+                  <c:v>0.66839808999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.69119294899999995</c:v>
+                  <c:v>0.66829448599999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.69104728800000004</c:v>
+                  <c:v>0.66826145299999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.69101715699999999</c:v>
+                  <c:v>0.66825959599999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.69107229400000003</c:v>
+                  <c:v>0.66829000999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.69104395500000004</c:v>
+                  <c:v>0.66828373699999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.69102011900000004</c:v>
+                  <c:v>0.66827689999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.69100509600000004</c:v>
+                  <c:v>0.66827247599999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.690997313</c:v>
+                  <c:v>0.66827026599999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2281,11 +2281,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="496652592"/>
-        <c:axId val="496654224"/>
+        <c:axId val="-516953296"/>
+        <c:axId val="-516964720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="496652592"/>
+        <c:axId val="-516953296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2328,7 +2328,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496654224"/>
+        <c:crossAx val="-516964720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2336,11 +2336,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="496654224"/>
+        <c:axId val="-516964720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.65000000000000013"/>
+          <c:min val="0.64000000000000012"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2389,7 +2388,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496652592"/>
+        <c:crossAx val="-516953296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2495,7 +2494,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист4!$B$1</c:f>
+              <c:f>Лист3!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2518,7 +2517,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист4!$A$2:$A$21</c:f>
+              <c:f>Лист3!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2587,69 +2586,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист4!$B$2:$B$21</c:f>
+              <c:f>Лист3!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.267415925</c:v>
+                  <c:v>0.980650036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28378962299999999</c:v>
+                  <c:v>0.93825375899999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28329694399999999</c:v>
+                  <c:v>0.93053849799999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28314011300000003</c:v>
+                  <c:v>0.92972328100000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28313070800000001</c:v>
+                  <c:v>0.929684552</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28312908399999998</c:v>
+                  <c:v>0.92967836299999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.92967836100000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.92967836100000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.92967836100000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.92967836100000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.92967836100000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.92967836100000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.92967836100000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.92967836100000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.92967836100000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.92967836100000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.92967836100000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.28312975099999999</c:v>
+                  <c:v>0.92967836400000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28312975099999999</c:v>
+                  <c:v>0.92967836400000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28312975099999999</c:v>
+                  <c:v>0.92967836400000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,7 +2660,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист4!$C$1</c:f>
+              <c:f>Лист3!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2684,7 +2683,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист4!$A$2:$A$21</c:f>
+              <c:f>Лист3!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2753,69 +2752,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист4!$C$2:$C$21</c:f>
+              <c:f>Лист3!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.18736978500000001</c:v>
+                  <c:v>0.92058611199999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20104085099999999</c:v>
+                  <c:v>0.88725318799999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.201050583</c:v>
+                  <c:v>0.87169902200000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20058846499999999</c:v>
+                  <c:v>0.86771158800000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.200479186</c:v>
+                  <c:v>0.86704340599999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20046003400000001</c:v>
+                  <c:v>0.866945615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20046164499999999</c:v>
+                  <c:v>0.866954844</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20046149399999999</c:v>
+                  <c:v>0.86695420099999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.200461466</c:v>
+                  <c:v>0.86695408299999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20046146100000001</c:v>
+                  <c:v>0.86695406200000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20046146000000001</c:v>
+                  <c:v>0.86695405800000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20046145900000001</c:v>
+                  <c:v>0.86695405699999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20046145900000001</c:v>
+                  <c:v>0.86695405699999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.20046145500000001</c:v>
+                  <c:v>0.86695502999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.20046145500000001</c:v>
+                  <c:v>0.86695502999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20046145500000001</c:v>
+                  <c:v>0.86695502999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.20046145500000001</c:v>
+                  <c:v>0.86695502999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20046145500000001</c:v>
+                  <c:v>0.86695502999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.20046145500000001</c:v>
+                  <c:v>0.86695502999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.20046145500000001</c:v>
+                  <c:v>0.86695502999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2827,7 +2826,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист4!$D$1</c:f>
+              <c:f>Лист3!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2850,7 +2849,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист4!$A$2:$A$21</c:f>
+              <c:f>Лист3!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2919,69 +2918,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист4!$D$2:$D$21</c:f>
+              <c:f>Лист3!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.148672375</c:v>
+                  <c:v>0.82840527399999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14215206699999999</c:v>
+                  <c:v>0.82306905100000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14079139900000001</c:v>
+                  <c:v>0.81183950299999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.139662909</c:v>
+                  <c:v>0.80296807800000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13910614399999999</c:v>
+                  <c:v>0.79922856099999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13890459699999999</c:v>
+                  <c:v>0.79802217600000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13882782799999999</c:v>
+                  <c:v>0.79758105000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.138799265</c:v>
+                  <c:v>0.79741544499999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13880811900000001</c:v>
+                  <c:v>0.79749990500000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.138813505</c:v>
+                  <c:v>0.79754134099999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13881253199999999</c:v>
+                  <c:v>0.79753589199999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13881217200000001</c:v>
+                  <c:v>0.79753387099999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13881204</c:v>
+                  <c:v>0.79753313400000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.138811992</c:v>
+                  <c:v>0.79753286599999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.138811975</c:v>
+                  <c:v>0.79753276699999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.13881196800000001</c:v>
+                  <c:v>0.79753273099999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13881196600000001</c:v>
+                  <c:v>0.79753271699999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.13881196500000001</c:v>
+                  <c:v>0.79753271199999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13881262999999999</c:v>
+                  <c:v>0.79754003100000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13881262999999999</c:v>
+                  <c:v>0.79754002999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2993,7 +2992,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист4!$E$1</c:f>
+              <c:f>Лист3!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3016,7 +3015,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист4!$A$2:$A$21</c:f>
+              <c:f>Лист3!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3085,69 +3084,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист4!$E$2:$E$21</c:f>
+              <c:f>Лист3!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.13339302</c:v>
+                  <c:v>0.72296543400000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.101552237</c:v>
+                  <c:v>0.73764036499999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5899423999999997E-2</c:v>
+                  <c:v>0.74461753399999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3306976999999999E-2</c:v>
+                  <c:v>0.73035262899999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1420151000000005E-2</c:v>
+                  <c:v>0.71596585700000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0177816999999993E-2</c:v>
+                  <c:v>0.70636421999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9392445000000001E-2</c:v>
+                  <c:v>0.70032646899999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8896958999999998E-2</c:v>
+                  <c:v>0.69654961299999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8599724000000005E-2</c:v>
+                  <c:v>0.694274218</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8412490999999996E-2</c:v>
+                  <c:v>0.692845924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8300043999999994E-2</c:v>
+                  <c:v>0.69198630299999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.8236551999999996E-2</c:v>
+                  <c:v>0.691523938</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.8193360999999998E-2</c:v>
+                  <c:v>0.69119294899999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.8173197999999994E-2</c:v>
+                  <c:v>0.69104728800000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.8167835999999999E-2</c:v>
+                  <c:v>0.69101715699999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.8170603E-2</c:v>
+                  <c:v>0.69107229400000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.8166570999999999E-2</c:v>
+                  <c:v>0.69104395500000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8163399000000003E-2</c:v>
+                  <c:v>0.69102011900000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.8161404999999998E-2</c:v>
+                  <c:v>0.69100509600000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.8160349999999998E-2</c:v>
+                  <c:v>0.690997313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3163,11 +3162,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="496656944"/>
-        <c:axId val="496657488"/>
+        <c:axId val="-516957104"/>
+        <c:axId val="-516962544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="496656944"/>
+        <c:axId val="-516957104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,7 +3209,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496657488"/>
+        <c:crossAx val="-516962544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3218,7 +3217,889 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="496657488"/>
+        <c:axId val="-516962544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.65000000000000013"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-516957104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист4!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.267415925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28378962299999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28329694399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28314011300000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28313070800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28312908399999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.283129083</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28312975099999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28312975099999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28312975099999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист4!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.18736978500000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20104085099999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.201050583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20058846499999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.200479186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20046003400000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20046164499999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20046149399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.200461466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20046146100000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20046146000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20046145900000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20046145900000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20046145500000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20046145500000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20046145500000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20046145500000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20046145500000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20046145500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20046145500000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист4!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.148672375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14215206699999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14079139900000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.139662909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13910614399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13890459699999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13882782799999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.138799265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13880811900000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.138813505</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13881253199999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13881217200000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13881204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.138811992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.138811975</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13881196800000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13881196600000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13881196500000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13881262999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13881262999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист4!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист4!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист4!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.13339302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.101552237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5899423999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3306976999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1420151000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0177816999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9392445000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8896958999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8599724000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8412490999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8300043999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8236551999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8193360999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8173197999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.8167835999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.8170603E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.8166570999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8163399000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.8161404999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.8160349999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-516962000"/>
+        <c:axId val="-516961456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-516962000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-516961456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-516961456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -3271,7 +4152,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496656944"/>
+        <c:crossAx val="-516962000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3512,6 +4393,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5576,7 +6497,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5611,7 +7083,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5646,7 +7118,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5681,7 +7153,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5982,7 +7454,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6009,6 +7481,379 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.89159839299999999</v>
+      </c>
+      <c r="C2">
+        <v>0.84578794700000004</v>
+      </c>
+      <c r="D2">
+        <v>0.98670907799999996</v>
+      </c>
+      <c r="E2">
+        <v>1.37887468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.88649849000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.97297827100000001</v>
+      </c>
+      <c r="D3">
+        <v>0.80652002899999997</v>
+      </c>
+      <c r="E3">
+        <v>1.3811905179999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.78476864599999996</v>
+      </c>
+      <c r="C4">
+        <v>0.92492790899999999</v>
+      </c>
+      <c r="D4">
+        <v>0.64205165799999997</v>
+      </c>
+      <c r="E4">
+        <v>1.204372706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.71030030700000002</v>
+      </c>
+      <c r="C5">
+        <v>0.88369139100000005</v>
+      </c>
+      <c r="D5">
+        <v>0.70602313999999999</v>
+      </c>
+      <c r="E5">
+        <v>1.440764081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.66031703399999997</v>
+      </c>
+      <c r="C6">
+        <v>0.86093504899999995</v>
+      </c>
+      <c r="D6">
+        <v>0.78627315600000003</v>
+      </c>
+      <c r="E6">
+        <v>1.844072224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.62660321699999999</v>
+      </c>
+      <c r="C7">
+        <v>0.84941587900000004</v>
+      </c>
+      <c r="D7">
+        <v>0.82873205400000005</v>
+      </c>
+      <c r="E7">
+        <v>2.2140574040000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.60356510100000005</v>
+      </c>
+      <c r="C8">
+        <v>0.84370419799999996</v>
+      </c>
+      <c r="D8">
+        <v>0.85049989800000003</v>
+      </c>
+      <c r="E8">
+        <v>2.5082710459999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.58764697899999996</v>
+      </c>
+      <c r="C9">
+        <v>0.84088365099999995</v>
+      </c>
+      <c r="D9">
+        <v>0.86085452500000004</v>
+      </c>
+      <c r="E9">
+        <v>2.732456209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.57654287900000001</v>
+      </c>
+      <c r="C10">
+        <v>0.83947799499999998</v>
+      </c>
+      <c r="D10">
+        <v>0.860258525</v>
+      </c>
+      <c r="E10">
+        <v>2.8882100909999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.56872575199999997</v>
+      </c>
+      <c r="C11">
+        <v>0.83876762500000002</v>
+      </c>
+      <c r="D11">
+        <v>0.85933168999999998</v>
+      </c>
+      <c r="E11">
+        <v>3.005277446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.56319391699999999</v>
+      </c>
+      <c r="C12">
+        <v>0.83841194799999996</v>
+      </c>
+      <c r="D12">
+        <v>0.85985331799999998</v>
+      </c>
+      <c r="E12">
+        <v>3.0821550680000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.55923497200000005</v>
+      </c>
+      <c r="C13">
+        <v>0.838229106</v>
+      </c>
+      <c r="D13">
+        <v>0.86006689300000005</v>
+      </c>
+      <c r="E13">
+        <v>3.1349551029999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.55639856399999998</v>
+      </c>
+      <c r="C14">
+        <v>0.83814010400000005</v>
+      </c>
+      <c r="D14">
+        <v>0.86015311500000002</v>
+      </c>
+      <c r="E14">
+        <v>3.1725827290000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.55434677200000004</v>
+      </c>
+      <c r="C15">
+        <v>0.83809098900000001</v>
+      </c>
+      <c r="D15">
+        <v>0.86018769500000003</v>
+      </c>
+      <c r="E15">
+        <v>3.196329843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.55285921000000005</v>
+      </c>
+      <c r="C16">
+        <v>0.83807003999999996</v>
+      </c>
+      <c r="D16">
+        <v>0.86020150299999998</v>
+      </c>
+      <c r="E16">
+        <v>3.2082232180000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.55177585600000001</v>
+      </c>
+      <c r="C17">
+        <v>0.83805931300000003</v>
+      </c>
+      <c r="D17">
+        <v>0.86020701099999997</v>
+      </c>
+      <c r="E17">
+        <v>3.2135334109999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.55097579600000002</v>
+      </c>
+      <c r="C18">
+        <v>0.83805546600000003</v>
+      </c>
+      <c r="D18">
+        <v>0.86020920000000001</v>
+      </c>
+      <c r="E18">
+        <v>3.2201323629999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.55039095699999996</v>
+      </c>
+      <c r="C19">
+        <v>0.83805228799999998</v>
+      </c>
+      <c r="D19">
+        <v>0.86021006499999997</v>
+      </c>
+      <c r="E19">
+        <v>3.2247391080000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.549955207</v>
+      </c>
+      <c r="C20">
+        <v>0.83805280800000004</v>
+      </c>
+      <c r="D20">
+        <v>0.860009001</v>
+      </c>
+      <c r="E20">
+        <v>3.2278067240000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.54963043499999997</v>
+      </c>
+      <c r="C21">
+        <v>0.83805343700000001</v>
+      </c>
+      <c r="D21">
+        <v>0.86000913300000004</v>
+      </c>
+      <c r="E21">
+        <v>3.2297245440000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>0.12860655100000001</v>
       </c>
       <c r="C2">
@@ -6351,7 +8196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -6725,7 +8570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -7099,7 +8944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>

--- a/Excel_Data/2.xlsx
+++ b/Excel_Data/2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9372" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист5" sheetId="5" r:id="rId1"/>
@@ -226,64 +226,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.89159839299999999</c:v>
+                  <c:v>1.9047595879999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88649849000000003</c:v>
+                  <c:v>1.6372711600000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78476864599999996</c:v>
+                  <c:v>1.443286721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71030030700000002</c:v>
+                  <c:v>1.3056021710000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66031703399999997</c:v>
+                  <c:v>1.2100407959999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62660321699999999</c:v>
+                  <c:v>1.1438732410000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60356510100000005</c:v>
+                  <c:v>1.0978559349999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58764697899999996</c:v>
+                  <c:v>1.0656603090000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57654287900000001</c:v>
+                  <c:v>1.042995737</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56872575199999997</c:v>
+                  <c:v>1.0269441479999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.56319391699999999</c:v>
+                  <c:v>1.0155089150000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.55923497200000005</c:v>
+                  <c:v>1.00731533</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.55639856399999998</c:v>
+                  <c:v>1.001411246</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55434677200000004</c:v>
+                  <c:v>0.99713343600000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.55285921000000005</c:v>
+                  <c:v>0.99401735400000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.55177585600000001</c:v>
+                  <c:v>0.99173581799999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.55097579600000002</c:v>
+                  <c:v>0.99005711299999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.55039095699999996</c:v>
+                  <c:v>0.98881622199999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.549955207</c:v>
+                  <c:v>0.98789496899999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.54963043499999997</c:v>
+                  <c:v>0.98720825499999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -392,64 +392,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.84578794700000004</c:v>
+                  <c:v>2.2202717750000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97297827100000001</c:v>
+                  <c:v>1.906407704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92492790899999999</c:v>
+                  <c:v>1.743074867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88369139100000005</c:v>
+                  <c:v>1.647882598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86093504899999995</c:v>
+                  <c:v>1.5957947370000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.84941587900000004</c:v>
+                  <c:v>1.568624631</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.84370419799999996</c:v>
+                  <c:v>1.554790557</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84088365099999995</c:v>
+                  <c:v>1.5478123669999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83947799499999998</c:v>
+                  <c:v>1.544294209</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83876762500000002</c:v>
+                  <c:v>1.5425119169999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83841194799999996</c:v>
+                  <c:v>1.541601722</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.838229106</c:v>
+                  <c:v>1.54113225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.83814010400000005</c:v>
+                  <c:v>1.5408874299999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.83809098900000001</c:v>
+                  <c:v>1.5407583060000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.83807003999999996</c:v>
+                  <c:v>1.540689435</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.83805931300000003</c:v>
+                  <c:v>1.540652304</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.83805546600000003</c:v>
+                  <c:v>1.5406320849999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83805228799999998</c:v>
+                  <c:v>1.5406209740000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.83805280800000004</c:v>
+                  <c:v>1.540614819</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.83805343700000001</c:v>
+                  <c:v>1.540611384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -558,64 +558,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.98670907799999996</c:v>
+                  <c:v>2.657843765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80652002899999997</c:v>
+                  <c:v>2.2476537969999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64205165799999997</c:v>
+                  <c:v>2.1074637389999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70602313999999999</c:v>
+                  <c:v>2.0463224719999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78627315600000003</c:v>
+                  <c:v>2.0196704259999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82873205400000005</c:v>
+                  <c:v>2.008500937</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85049989800000003</c:v>
+                  <c:v>2.0039550290000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86085452500000004</c:v>
+                  <c:v>2.0021353679999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.860258525</c:v>
+                  <c:v>2.0014121490000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85933168999999998</c:v>
+                  <c:v>2.0011248269999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.85985331799999998</c:v>
+                  <c:v>2.0010101950000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86006689300000005</c:v>
+                  <c:v>2.0009641249999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.86015311500000002</c:v>
+                  <c:v>2.0009454400000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.86018769500000003</c:v>
+                  <c:v>2.0009377879999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.86020150299999998</c:v>
+                  <c:v>2.000934623</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.86020701099999997</c:v>
+                  <c:v>2.0009333030000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86020920000000001</c:v>
+                  <c:v>2.0009327469999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.86021006499999997</c:v>
+                  <c:v>2.000932513</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.860009001</c:v>
+                  <c:v>2.0009324130000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.86000913300000004</c:v>
+                  <c:v>2.0009323700000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,64 +724,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.37887468</c:v>
+                  <c:v>3.2033417790000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3811905179999999</c:v>
+                  <c:v>2.6667503739999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.204372706</c:v>
+                  <c:v>2.524938938</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.440764081</c:v>
+                  <c:v>2.4776554640000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.844072224</c:v>
+                  <c:v>2.4614160730000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2140574040000001</c:v>
+                  <c:v>2.4555925510000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5082710459999999</c:v>
+                  <c:v>2.4534809989999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.732456209</c:v>
+                  <c:v>2.452707856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8882100909999999</c:v>
+                  <c:v>2.4524213750000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.005277446</c:v>
+                  <c:v>2.452313642</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0821550680000001</c:v>
+                  <c:v>2.4522724220000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1349551029999998</c:v>
+                  <c:v>2.4522563540000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1725827290000002</c:v>
+                  <c:v>2.4522499720000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.196329843</c:v>
+                  <c:v>2.4522473910000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2082232180000001</c:v>
+                  <c:v>2.4522463299999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2135334109999998</c:v>
+                  <c:v>2.4522458889999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2201323629999998</c:v>
+                  <c:v>2.452245703</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2247391080000001</c:v>
+                  <c:v>2.4522456240000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2278067240000001</c:v>
+                  <c:v>2.45224559</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2297245440000002</c:v>
+                  <c:v>2.4522455760000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,11 +797,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-268916304"/>
-        <c:axId val="-268909776"/>
+        <c:axId val="1970021488"/>
+        <c:axId val="1970024752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-268916304"/>
+        <c:axId val="1970021488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +844,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-268909776"/>
+        <c:crossAx val="1970024752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -852,7 +852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-268909776"/>
+        <c:axId val="1970024752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +903,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-268916304"/>
+        <c:crossAx val="1970021488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1037,64 +1037,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.12860655100000001</c:v>
+                  <c:v>0.16728716599999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0159904000000003E-2</c:v>
+                  <c:v>0.34014248000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0761482E-2</c:v>
+                  <c:v>0.58845096799999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2080589E-2</c:v>
+                  <c:v>0.887835441</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2148706999999999E-2</c:v>
+                  <c:v>1.209767939</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2215292E-2</c:v>
+                  <c:v>1.535671896</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.221537E-2</c:v>
+                  <c:v>1.854602343</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>2.1605089030000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>2.4504152719999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>2.7232547820000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>2.9791196590000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>3.218774233</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>3.4433406030000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>3.6540984380000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>3.8523605839999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>4.0393987989999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2215375999999997E-2</c:v>
+                  <c:v>4.2164022719999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2215343E-2</c:v>
+                  <c:v>4.384457287</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2215343E-2</c:v>
+                  <c:v>4.5445401710000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2215343E-2</c:v>
+                  <c:v>4.6975183530000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,64 +1134,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.50616134999999995</c:v>
+                  <c:v>0.29893379199999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29139865700000001</c:v>
+                  <c:v>0.51668483799999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22048114799999999</c:v>
+                  <c:v>0.74617820000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.229747388</c:v>
+                  <c:v>0.98713218300000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23700928900000001</c:v>
+                  <c:v>1.216379541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23909171700000001</c:v>
+                  <c:v>1.4212518590000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23905536499999999</c:v>
+                  <c:v>1.5989392499999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.239102747</c:v>
+                  <c:v>1.7513704590000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23911279999999999</c:v>
+                  <c:v>1.8820732120000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23911487100000001</c:v>
+                  <c:v>1.9947453639999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.239115296</c:v>
+                  <c:v>2.0927140569999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.23911538299999999</c:v>
+                  <c:v>2.178787942</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23911540000000001</c:v>
+                  <c:v>2.2552662379999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.23910288299999999</c:v>
+                  <c:v>2.3240015380000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.23910288299999999</c:v>
+                  <c:v>2.3864740229999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.23910288399999999</c:v>
+                  <c:v>2.443860999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.23910288399999999</c:v>
+                  <c:v>2.497096703</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.23910288399999999</c:v>
+                  <c:v>2.5469217209999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.23910288399999999</c:v>
+                  <c:v>2.5939230100000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.23910288399999999</c:v>
+                  <c:v>2.6385659330000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,64 +1231,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.98670907799999996</c:v>
+                  <c:v>0.40426259599999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80652002899999997</c:v>
+                  <c:v>0.69034385600000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64205165799999997</c:v>
+                  <c:v>0.92072630899999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70602313999999999</c:v>
+                  <c:v>1.118072161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78627315600000003</c:v>
+                  <c:v>1.2833249790000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82873205400000005</c:v>
+                  <c:v>1.418161303</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85049989800000003</c:v>
+                  <c:v>1.5271453989999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86085452500000004</c:v>
+                  <c:v>1.615515313</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.860258525</c:v>
+                  <c:v>1.6879366499999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85933168999999998</c:v>
+                  <c:v>1.7481742069999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.85985331799999998</c:v>
+                  <c:v>1.7991414450000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86006689300000005</c:v>
+                  <c:v>1.843052403</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.86015311500000002</c:v>
+                  <c:v>1.88157643</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.86018769500000003</c:v>
+                  <c:v>1.9159680690000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.86020150299999998</c:v>
+                  <c:v>1.9471690239999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.86020701099999997</c:v>
+                  <c:v>1.975886056</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86020920000000001</c:v>
+                  <c:v>2.0026498290000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.86021006499999997</c:v>
+                  <c:v>2.0278591129999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.860009001</c:v>
+                  <c:v>2.0518139340000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.86000913300000004</c:v>
+                  <c:v>2.0747403879999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,64 +1328,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.37887468</c:v>
+                  <c:v>0.49034151999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3811905179999999</c:v>
+                  <c:v>0.86019787400000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.204372706</c:v>
+                  <c:v>1.1304277899999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.440764081</c:v>
+                  <c:v>1.3266246399999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.844072224</c:v>
+                  <c:v>1.4702520640000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2140574040000001</c:v>
+                  <c:v>1.577077214</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5082710459999999</c:v>
+                  <c:v>1.6580968410000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.732456209</c:v>
+                  <c:v>1.720868646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8882100909999999</c:v>
+                  <c:v>1.7706135119999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.005277446</c:v>
+                  <c:v>1.8109810289999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0821550680000001</c:v>
+                  <c:v>1.84455076</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1349551029999998</c:v>
+                  <c:v>1.8731605419999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1725827290000002</c:v>
+                  <c:v>1.898126457</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.196329843</c:v>
+                  <c:v>1.9203939569999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2082232180000001</c:v>
+                  <c:v>1.9406436460000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2135334109999998</c:v>
+                  <c:v>1.959366242</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2201323629999998</c:v>
+                  <c:v>1.9769160539999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2247391080000001</c:v>
+                  <c:v>1.9935493129999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2278067240000001</c:v>
+                  <c:v>2.0094516809999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2297245440000002</c:v>
+                  <c:v>2.024758024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,11 +1401,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-516952208"/>
-        <c:axId val="-516951664"/>
+        <c:axId val="1970019312"/>
+        <c:axId val="1970023664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-516952208"/>
+        <c:axId val="1970019312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1448,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-516951664"/>
+        <c:crossAx val="1970023664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1456,7 +1456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-516951664"/>
+        <c:axId val="1970023664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,7 +1507,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-516952208"/>
+        <c:crossAx val="1970019312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1710,64 +1710,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.726094766</c:v>
+                  <c:v>0.35758230499999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65749425299999997</c:v>
+                  <c:v>0.42672908999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64973596300000003</c:v>
+                  <c:v>0.47855314700000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64921077400000005</c:v>
+                  <c:v>0.51514675099999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64919084800000004</c:v>
+                  <c:v>0.54048734600000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64918979399999999</c:v>
+                  <c:v>0.55801940699999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64918979499999996</c:v>
+                  <c:v>0.57020912099999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64918979499999996</c:v>
+                  <c:v>0.57873681799999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.64918979499999996</c:v>
+                  <c:v>0.58473984899999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.64918979499999996</c:v>
+                  <c:v>0.58899130200000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64918979499999996</c:v>
+                  <c:v>0.59202005000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.64918979499999996</c:v>
+                  <c:v>0.59419021000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.64918979499999996</c:v>
+                  <c:v>0.59575397100000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64918979499999996</c:v>
+                  <c:v>0.59688699499999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.64918979499999996</c:v>
+                  <c:v>0.59771232299999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.64918979499999996</c:v>
+                  <c:v>0.59831661300000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.64918979499999996</c:v>
+                  <c:v>0.59876123599999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.64918912699999998</c:v>
+                  <c:v>0.59908989999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.64918912699999998</c:v>
+                  <c:v>0.599333903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.64918912699999998</c:v>
+                  <c:v>0.59951578699999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,64 +1876,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.77923099500000004</c:v>
+                  <c:v>0.31503964899999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70308816299999999</c:v>
+                  <c:v>0.36578413900000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68276588800000004</c:v>
+                  <c:v>0.39589666400000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67956310499999995</c:v>
+                  <c:v>0.41320470399999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67921149800000002</c:v>
+                  <c:v>0.42250754299999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67917738299999997</c:v>
+                  <c:v>0.42729956099999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67918103200000002</c:v>
+                  <c:v>0.42971907100000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.679181005</c:v>
+                  <c:v>0.43093272199999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67918100100000001</c:v>
+                  <c:v>0.43154235499999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67918100000000003</c:v>
+                  <c:v>0.43185045399999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67918100000000003</c:v>
+                  <c:v>0.43200755299999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.67918100000000003</c:v>
+                  <c:v>0.43208850399999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67918100000000003</c:v>
+                  <c:v>0.43213069199999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.67918102800000002</c:v>
+                  <c:v>0.43215293399999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.67918102800000002</c:v>
+                  <c:v>0.43216479400000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.67918102800000002</c:v>
+                  <c:v>0.43217118700000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.67918102800000002</c:v>
+                  <c:v>0.43217466900000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.67918102800000002</c:v>
+                  <c:v>0.432176581</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.67918102800000002</c:v>
+                  <c:v>0.432177641</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.67918102800000002</c:v>
+                  <c:v>0.432178232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2042,64 +2042,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.76195865500000004</c:v>
+                  <c:v>0.26969879899999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72159557299999999</c:v>
+                  <c:v>0.30764681500000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69852466599999996</c:v>
+                  <c:v>0.32358064399999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69120798500000002</c:v>
+                  <c:v>0.33052563800000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68939822799999995</c:v>
+                  <c:v>0.33342961799999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.688961508</c:v>
+                  <c:v>0.334592263</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68884653399999995</c:v>
+                  <c:v>0.33504539700000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68881520100000004</c:v>
+                  <c:v>0.33521960099999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68884809199999997</c:v>
+                  <c:v>0.335286274</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.68886024999999995</c:v>
+                  <c:v>0.335311839</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.68885909499999998</c:v>
+                  <c:v>0.33532170300000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.68885867000000001</c:v>
+                  <c:v>0.33532554399999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.68885851899999995</c:v>
+                  <c:v>0.33532705499999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.68885846500000003</c:v>
+                  <c:v>0.335327657</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.68885844500000004</c:v>
+                  <c:v>0.33532789899999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68885843800000002</c:v>
+                  <c:v>0.33532799699999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.68885843499999999</c:v>
+                  <c:v>0.33532803799999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.68885843400000002</c:v>
+                  <c:v>0.33532805399999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.68886019300000001</c:v>
+                  <c:v>0.33532806100000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.68886019300000001</c:v>
+                  <c:v>0.33532806399999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,64 +2208,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.69563969699999995</c:v>
+                  <c:v>0.22969467299999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70259632100000002</c:v>
+                  <c:v>0.25815946400000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69399091599999996</c:v>
+                  <c:v>0.26703510000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68358019000000003</c:v>
+                  <c:v>0.26996840999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67707563699999995</c:v>
+                  <c:v>0.27094858100000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67343326199999998</c:v>
+                  <c:v>0.27127869199999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67131917500000005</c:v>
+                  <c:v>0.27139038900000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67006593000000003</c:v>
+                  <c:v>0.27142851699999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.669259987</c:v>
+                  <c:v>0.271441708</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66882967400000004</c:v>
+                  <c:v>0.271446352</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66853244099999998</c:v>
+                  <c:v>0.27144801899999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66839808999999994</c:v>
+                  <c:v>0.27144863200000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.66829448599999997</c:v>
+                  <c:v>0.27144886099999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.66826145299999995</c:v>
+                  <c:v>0.27144894899999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.66825959599999996</c:v>
+                  <c:v>0.27144898299999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66829000999999999</c:v>
+                  <c:v>0.27144899700000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.66828373699999999</c:v>
+                  <c:v>0.27144900300000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.66827689999999995</c:v>
+                  <c:v>0.27144900500000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.66827247599999995</c:v>
+                  <c:v>0.27144900599999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.66827026599999995</c:v>
+                  <c:v>0.27144900599999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2281,11 +2281,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-516953296"/>
-        <c:axId val="-516964720"/>
+        <c:axId val="1970014416"/>
+        <c:axId val="1970019856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-516953296"/>
+        <c:axId val="1970014416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2328,7 +2328,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-516964720"/>
+        <c:crossAx val="1970019856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2336,10 +2336,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-516964720"/>
+        <c:axId val="1970019856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.64000000000000012"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2388,7 +2387,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-516953296"/>
+        <c:crossAx val="1970014416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2591,64 +2590,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.980650036</c:v>
+                  <c:v>0.83271283299999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93825375899999996</c:v>
+                  <c:v>0.70195786699999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93053849799999999</c:v>
+                  <c:v>0.605480303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92972328100000001</c:v>
+                  <c:v>0.53723485299999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.929684552</c:v>
+                  <c:v>0.48994965400000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92967836299999995</c:v>
+                  <c:v>0.457230046</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.43447976100000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.41856390100000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.40735997499999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.39942514800000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.39377235100000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.38972200600000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.38680343299999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.38468877899999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.38314840300000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.382020568</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92967836100000001</c:v>
+                  <c:v>0.38119073199999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92967836400000003</c:v>
+                  <c:v>0.38057732100000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92967836400000003</c:v>
+                  <c:v>0.38012191699999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92967836400000003</c:v>
+                  <c:v>0.37978245300000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2757,64 +2756,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.92058611199999996</c:v>
+                  <c:v>0.701066207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88725318799999997</c:v>
+                  <c:v>0.58501808399999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87169902200000005</c:v>
+                  <c:v>0.51752624700000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86771158800000003</c:v>
+                  <c:v>0.47839593000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86704340599999996</c:v>
+                  <c:v>0.45727283400000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.866945615</c:v>
+                  <c:v>0.44636821799999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.866954844</c:v>
+                  <c:v>0.44085606999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86695420099999998</c:v>
+                  <c:v>0.43808936799999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86695408299999999</c:v>
+                  <c:v>0.43669912500000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86695406200000003</c:v>
+                  <c:v>0.43599637600000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.86695405800000003</c:v>
+                  <c:v>0.43563800499999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86695405699999994</c:v>
+                  <c:v>0.43545333000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.86695405699999994</c:v>
+                  <c:v>0.43535708299999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.86695502999999996</c:v>
+                  <c:v>0.43530633800000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.86695502999999996</c:v>
+                  <c:v>0.43527927900000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.86695502999999996</c:v>
+                  <c:v>0.43526469200000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86695502999999996</c:v>
+                  <c:v>0.43525675000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.86695502999999996</c:v>
+                  <c:v>0.43525238599999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.86695502999999996</c:v>
+                  <c:v>0.43524996799999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.86695502999999996</c:v>
+                  <c:v>0.435248619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2923,64 +2922,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.82840527399999997</c:v>
+                  <c:v>0.595737403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82306905100000005</c:v>
+                  <c:v>0.485106062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81183950299999996</c:v>
+                  <c:v>0.43977316700000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80296807800000003</c:v>
+                  <c:v>0.41970744300000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79922856099999995</c:v>
+                  <c:v>0.41122691</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79802217600000003</c:v>
+                  <c:v>0.40780766299999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79758105000000001</c:v>
+                  <c:v>0.406468571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.79741544499999994</c:v>
+                  <c:v>0.40595194899999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79749990500000001</c:v>
+                  <c:v>0.405753694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79754134099999996</c:v>
+                  <c:v>0.40567751499999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79753589199999997</c:v>
+                  <c:v>0.40564807200000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.79753387099999995</c:v>
+                  <c:v>0.40563659200000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.79753313400000003</c:v>
+                  <c:v>0.40563206899999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79753286599999995</c:v>
+                  <c:v>0.40563026699999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.79753276699999998</c:v>
+                  <c:v>0.40562954099999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.79753273099999999</c:v>
+                  <c:v>0.405629246</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.79753271699999995</c:v>
+                  <c:v>0.40562912499999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.79753271199999998</c:v>
+                  <c:v>0.40562907500000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.79754003100000004</c:v>
+                  <c:v>0.40562905399999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.79754002999999996</c:v>
+                  <c:v>0.40562904500000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3089,64 +3088,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.72296543400000002</c:v>
+                  <c:v>0.50965847900000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73764036499999996</c:v>
+                  <c:v>0.39933551099999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74461753399999997</c:v>
+                  <c:v>0.36558017700000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73035262899999998</c:v>
+                  <c:v>0.35427599999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71596585700000004</c:v>
+                  <c:v>0.35043429100000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70636421999999999</c:v>
+                  <c:v>0.349129413</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70032646899999995</c:v>
+                  <c:v>0.348685409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69654961299999996</c:v>
+                  <c:v>0.34853326800000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.694274218</c:v>
+                  <c:v>0.348480493</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.692845924</c:v>
+                  <c:v>0.348461878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69198630299999997</c:v>
+                  <c:v>0.34845518199999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.691523938</c:v>
+                  <c:v>0.34845271999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.69119294899999995</c:v>
+                  <c:v>0.34845179599999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.69104728800000004</c:v>
+                  <c:v>0.34845144099999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.69101715699999999</c:v>
+                  <c:v>0.34845130200000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.69107229400000003</c:v>
+                  <c:v>0.34845124700000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.69104395500000004</c:v>
+                  <c:v>0.34845122499999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.69102011900000004</c:v>
+                  <c:v>0.34845121600000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.69100509600000004</c:v>
+                  <c:v>0.34845121299999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.690997313</c:v>
+                  <c:v>0.34845121099999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3162,11 +3161,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-516957104"/>
-        <c:axId val="-516962544"/>
+        <c:axId val="1970025296"/>
+        <c:axId val="1970020944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-516957104"/>
+        <c:axId val="1970025296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3209,7 +3208,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-516962544"/>
+        <c:crossAx val="1970020944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3217,11 +3216,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-516962544"/>
+        <c:axId val="1970020944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.65000000000000013"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3270,7 +3267,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-516957104"/>
+        <c:crossAx val="1970025296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3473,64 +3470,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.267415925</c:v>
+                  <c:v>0.52596712199999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28378962299999999</c:v>
+                  <c:v>0.45999001900000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28329694399999999</c:v>
+                  <c:v>0.39913509899999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28314011300000003</c:v>
+                  <c:v>0.35359056999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28313070800000001</c:v>
+                  <c:v>0.32158660100000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28312908399999998</c:v>
+                  <c:v>0.29935751999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.28388558600000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.27305854299999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.26543628800000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.26003795299999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.25619213899999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.25343652900000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.251450909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.25001222499999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.248964246</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.24819693500000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.283129083</c:v>
+                  <c:v>0.24763236499999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.28312975099999999</c:v>
+                  <c:v>0.247215037</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28312975099999999</c:v>
+                  <c:v>0.24690520699999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28312975099999999</c:v>
+                  <c:v>0.24667425600000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3639,64 +3636,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.18736978500000001</c:v>
+                  <c:v>0.45914265300000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20104085099999999</c:v>
+                  <c:v>0.394060509</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.201050583</c:v>
+                  <c:v>0.34916529499999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20058846499999999</c:v>
+                  <c:v>0.32000051600000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.200479186</c:v>
+                  <c:v>0.30346786999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20046003400000001</c:v>
+                  <c:v>0.29473039899999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20046164499999999</c:v>
+                  <c:v>0.29025980200000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20046149399999999</c:v>
+                  <c:v>0.28800105199999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.200461466</c:v>
+                  <c:v>0.28686188699999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20046146100000001</c:v>
+                  <c:v>0.28628486600000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20046146000000001</c:v>
+                  <c:v>0.28599026500000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20046145900000001</c:v>
+                  <c:v>0.28583835000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20046145900000001</c:v>
+                  <c:v>0.28575914600000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.20046145500000001</c:v>
+                  <c:v>0.28571737800000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.20046145500000001</c:v>
+                  <c:v>0.28569510300000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20046145500000001</c:v>
+                  <c:v>0.28568309400000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.20046145500000001</c:v>
+                  <c:v>0.28567655600000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20046145500000001</c:v>
+                  <c:v>0.28567296199999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.20046145500000001</c:v>
+                  <c:v>0.28567097200000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.20046145500000001</c:v>
+                  <c:v>0.28566986100000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3805,64 +3802,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.148672375</c:v>
+                  <c:v>0.40079779599999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14215206699999999</c:v>
+                  <c:v>0.32328309100000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14079139900000001</c:v>
+                  <c:v>0.28881318099999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.139662909</c:v>
+                  <c:v>0.271629075</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13910614399999999</c:v>
+                  <c:v>0.26384175100000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13890459699999999</c:v>
+                  <c:v>0.260566144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13882782799999999</c:v>
+                  <c:v>0.25924710400000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.138799265</c:v>
+                  <c:v>0.25872812899999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13880811900000001</c:v>
+                  <c:v>0.25852605200000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.138813505</c:v>
+                  <c:v>0.25844752999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13881253199999999</c:v>
+                  <c:v>0.25841691</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13881217200000001</c:v>
+                  <c:v>0.25840488499999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13881204</c:v>
+                  <c:v>0.25840011800000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.138811992</c:v>
+                  <c:v>0.25839821000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.138811975</c:v>
+                  <c:v>0.25839743799999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.13881196800000001</c:v>
+                  <c:v>0.25839712300000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13881196600000001</c:v>
+                  <c:v>0.25839699300000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.13881196500000001</c:v>
+                  <c:v>0.25839693899999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13881262999999999</c:v>
+                  <c:v>0.258396917</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13881262999999999</c:v>
+                  <c:v>0.25839690700000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3971,64 +3968,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.13339302</c:v>
+                  <c:v>0.346120494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.101552237</c:v>
+                  <c:v>0.25358784899999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5899423999999997E-2</c:v>
+                  <c:v>0.22344106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3306976999999999E-2</c:v>
+                  <c:v>0.21244064300000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1420151000000005E-2</c:v>
+                  <c:v>0.20849357099999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0177816999999993E-2</c:v>
+                  <c:v>0.20710684700000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9392445000000001E-2</c:v>
+                  <c:v>0.206624945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8896958999999998E-2</c:v>
+                  <c:v>0.206457574</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8599724000000005E-2</c:v>
+                  <c:v>0.206399002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8412490999999996E-2</c:v>
+                  <c:v>0.206378222</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8300043999999994E-2</c:v>
+                  <c:v>0.20637071800000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.8236551999999996E-2</c:v>
+                  <c:v>0.20636795199999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.8193360999999998E-2</c:v>
+                  <c:v>0.20636691099999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.8173197999999994E-2</c:v>
+                  <c:v>0.206366512</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.8167835999999999E-2</c:v>
+                  <c:v>0.206366356</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.8170603E-2</c:v>
+                  <c:v>0.20636629400000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.8166570999999999E-2</c:v>
+                  <c:v>0.20636626899999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8163399000000003E-2</c:v>
+                  <c:v>0.206366259</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.8161404999999998E-2</c:v>
+                  <c:v>0.206366254</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.8160349999999998E-2</c:v>
+                  <c:v>0.206366253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4044,11 +4041,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-516962000"/>
-        <c:axId val="-516961456"/>
+        <c:axId val="1970025840"/>
+        <c:axId val="1970015504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-516962000"/>
+        <c:axId val="1970025840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4091,7 +4088,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-516961456"/>
+        <c:crossAx val="1970015504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4099,11 +4096,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-516961456"/>
+        <c:axId val="1970015504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.30000000000000004"/>
-          <c:min val="5.000000000000001E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4152,7 +4147,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-516962000"/>
+        <c:crossAx val="1970025840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7453,8 +7448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7481,16 +7476,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.89159839299999999</v>
+        <v>1.9047595879999999</v>
       </c>
       <c r="C2">
-        <v>0.84578794700000004</v>
+        <v>2.2202717750000001</v>
       </c>
       <c r="D2">
-        <v>0.98670907799999996</v>
+        <v>2.657843765</v>
       </c>
       <c r="E2">
-        <v>1.37887468</v>
+        <v>3.2033417790000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -7498,16 +7493,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.88649849000000003</v>
+        <v>1.6372711600000001</v>
       </c>
       <c r="C3">
-        <v>0.97297827100000001</v>
+        <v>1.906407704</v>
       </c>
       <c r="D3">
-        <v>0.80652002899999997</v>
+        <v>2.2476537969999999</v>
       </c>
       <c r="E3">
-        <v>1.3811905179999999</v>
+        <v>2.6667503739999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -7515,16 +7510,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.78476864599999996</v>
+        <v>1.443286721</v>
       </c>
       <c r="C4">
-        <v>0.92492790899999999</v>
+        <v>1.743074867</v>
       </c>
       <c r="D4">
-        <v>0.64205165799999997</v>
+        <v>2.1074637389999999</v>
       </c>
       <c r="E4">
-        <v>1.204372706</v>
+        <v>2.524938938</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -7532,16 +7527,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.71030030700000002</v>
+        <v>1.3056021710000001</v>
       </c>
       <c r="C5">
-        <v>0.88369139100000005</v>
+        <v>1.647882598</v>
       </c>
       <c r="D5">
-        <v>0.70602313999999999</v>
+        <v>2.0463224719999999</v>
       </c>
       <c r="E5">
-        <v>1.440764081</v>
+        <v>2.4776554640000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -7549,16 +7544,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.66031703399999997</v>
+        <v>1.2100407959999999</v>
       </c>
       <c r="C6">
-        <v>0.86093504899999995</v>
+        <v>1.5957947370000001</v>
       </c>
       <c r="D6">
-        <v>0.78627315600000003</v>
+        <v>2.0196704259999998</v>
       </c>
       <c r="E6">
-        <v>1.844072224</v>
+        <v>2.4614160730000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -7566,16 +7561,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.62660321699999999</v>
+        <v>1.1438732410000001</v>
       </c>
       <c r="C7">
-        <v>0.84941587900000004</v>
+        <v>1.568624631</v>
       </c>
       <c r="D7">
-        <v>0.82873205400000005</v>
+        <v>2.008500937</v>
       </c>
       <c r="E7">
-        <v>2.2140574040000001</v>
+        <v>2.4555925510000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -7583,16 +7578,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.60356510100000005</v>
+        <v>1.0978559349999999</v>
       </c>
       <c r="C8">
-        <v>0.84370419799999996</v>
+        <v>1.554790557</v>
       </c>
       <c r="D8">
-        <v>0.85049989800000003</v>
+        <v>2.0039550290000001</v>
       </c>
       <c r="E8">
-        <v>2.5082710459999999</v>
+        <v>2.4534809989999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -7600,16 +7595,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.58764697899999996</v>
+        <v>1.0656603090000001</v>
       </c>
       <c r="C9">
-        <v>0.84088365099999995</v>
+        <v>1.5478123669999999</v>
       </c>
       <c r="D9">
-        <v>0.86085452500000004</v>
+        <v>2.0021353679999998</v>
       </c>
       <c r="E9">
-        <v>2.732456209</v>
+        <v>2.452707856</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -7617,16 +7612,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.57654287900000001</v>
+        <v>1.042995737</v>
       </c>
       <c r="C10">
-        <v>0.83947799499999998</v>
+        <v>1.544294209</v>
       </c>
       <c r="D10">
-        <v>0.860258525</v>
+        <v>2.0014121490000001</v>
       </c>
       <c r="E10">
-        <v>2.8882100909999999</v>
+        <v>2.4524213750000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -7634,16 +7629,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.56872575199999997</v>
+        <v>1.0269441479999999</v>
       </c>
       <c r="C11">
-        <v>0.83876762500000002</v>
+        <v>1.5425119169999999</v>
       </c>
       <c r="D11">
-        <v>0.85933168999999998</v>
+        <v>2.0011248269999999</v>
       </c>
       <c r="E11">
-        <v>3.005277446</v>
+        <v>2.452313642</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -7651,16 +7646,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.56319391699999999</v>
+        <v>1.0155089150000001</v>
       </c>
       <c r="C12">
-        <v>0.83841194799999996</v>
+        <v>1.541601722</v>
       </c>
       <c r="D12">
-        <v>0.85985331799999998</v>
+        <v>2.0010101950000001</v>
       </c>
       <c r="E12">
-        <v>3.0821550680000001</v>
+        <v>2.4522724220000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -7668,16 +7663,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.55923497200000005</v>
+        <v>1.00731533</v>
       </c>
       <c r="C13">
-        <v>0.838229106</v>
+        <v>1.54113225</v>
       </c>
       <c r="D13">
-        <v>0.86006689300000005</v>
+        <v>2.0009641249999999</v>
       </c>
       <c r="E13">
-        <v>3.1349551029999998</v>
+        <v>2.4522563540000002</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -7685,16 +7680,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.55639856399999998</v>
+        <v>1.001411246</v>
       </c>
       <c r="C14">
-        <v>0.83814010400000005</v>
+        <v>1.5408874299999999</v>
       </c>
       <c r="D14">
-        <v>0.86015311500000002</v>
+        <v>2.0009454400000002</v>
       </c>
       <c r="E14">
-        <v>3.1725827290000002</v>
+        <v>2.4522499720000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7702,16 +7697,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.55434677200000004</v>
+        <v>0.99713343600000004</v>
       </c>
       <c r="C15">
-        <v>0.83809098900000001</v>
+        <v>1.5407583060000001</v>
       </c>
       <c r="D15">
-        <v>0.86018769500000003</v>
+        <v>2.0009377879999999</v>
       </c>
       <c r="E15">
-        <v>3.196329843</v>
+        <v>2.4522473910000002</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -7719,16 +7714,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.55285921000000005</v>
+        <v>0.99401735400000002</v>
       </c>
       <c r="C16">
-        <v>0.83807003999999996</v>
+        <v>1.540689435</v>
       </c>
       <c r="D16">
-        <v>0.86020150299999998</v>
+        <v>2.000934623</v>
       </c>
       <c r="E16">
-        <v>3.2082232180000001</v>
+        <v>2.4522463299999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -7736,16 +7731,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.55177585600000001</v>
+        <v>0.99173581799999999</v>
       </c>
       <c r="C17">
-        <v>0.83805931300000003</v>
+        <v>1.540652304</v>
       </c>
       <c r="D17">
-        <v>0.86020701099999997</v>
+        <v>2.0009333030000001</v>
       </c>
       <c r="E17">
-        <v>3.2135334109999998</v>
+        <v>2.4522458889999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -7753,16 +7748,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.55097579600000002</v>
+        <v>0.99005711299999999</v>
       </c>
       <c r="C18">
-        <v>0.83805546600000003</v>
+        <v>1.5406320849999999</v>
       </c>
       <c r="D18">
-        <v>0.86020920000000001</v>
+        <v>2.0009327469999998</v>
       </c>
       <c r="E18">
-        <v>3.2201323629999998</v>
+        <v>2.452245703</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -7770,16 +7765,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.55039095699999996</v>
+        <v>0.98881622199999997</v>
       </c>
       <c r="C19">
-        <v>0.83805228799999998</v>
+        <v>1.5406209740000001</v>
       </c>
       <c r="D19">
-        <v>0.86021006499999997</v>
+        <v>2.000932513</v>
       </c>
       <c r="E19">
-        <v>3.2247391080000001</v>
+        <v>2.4522456240000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -7787,16 +7782,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.549955207</v>
+        <v>0.98789496899999996</v>
       </c>
       <c r="C20">
-        <v>0.83805280800000004</v>
+        <v>1.540614819</v>
       </c>
       <c r="D20">
-        <v>0.860009001</v>
+        <v>2.0009324130000001</v>
       </c>
       <c r="E20">
-        <v>3.2278067240000001</v>
+        <v>2.45224559</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -7804,16 +7799,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.54963043499999997</v>
+        <v>0.98720825499999998</v>
       </c>
       <c r="C21">
-        <v>0.83805343700000001</v>
+        <v>1.540611384</v>
       </c>
       <c r="D21">
-        <v>0.86000913300000004</v>
+        <v>2.0009323700000001</v>
       </c>
       <c r="E21">
-        <v>3.2297245440000002</v>
+        <v>2.4522455760000001</v>
       </c>
     </row>
   </sheetData>
@@ -7827,7 +7822,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7854,16 +7849,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.12860655100000001</v>
+        <v>0.16728716599999999</v>
       </c>
       <c r="C2">
-        <v>0.50616134999999995</v>
+        <v>0.29893379199999998</v>
       </c>
       <c r="D2">
-        <v>0.98670907799999996</v>
+        <v>0.40426259599999997</v>
       </c>
       <c r="E2">
-        <v>1.37887468</v>
+        <v>0.49034151999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -7871,16 +7866,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.0159904000000003E-2</v>
+        <v>0.34014248000000002</v>
       </c>
       <c r="C3">
-        <v>0.29139865700000001</v>
+        <v>0.51668483799999998</v>
       </c>
       <c r="D3">
-        <v>0.80652002899999997</v>
+        <v>0.69034385600000003</v>
       </c>
       <c r="E3">
-        <v>1.3811905179999999</v>
+        <v>0.86019787400000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -7888,16 +7883,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3.0761482E-2</v>
+        <v>0.58845096799999996</v>
       </c>
       <c r="C4">
-        <v>0.22048114799999999</v>
+        <v>0.74617820000000001</v>
       </c>
       <c r="D4">
-        <v>0.64205165799999997</v>
+        <v>0.92072630899999997</v>
       </c>
       <c r="E4">
-        <v>1.204372706</v>
+        <v>1.1304277899999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -7905,16 +7900,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.2080589E-2</v>
+        <v>0.887835441</v>
       </c>
       <c r="C5">
-        <v>0.229747388</v>
+        <v>0.98713218300000005</v>
       </c>
       <c r="D5">
-        <v>0.70602313999999999</v>
+        <v>1.118072161</v>
       </c>
       <c r="E5">
-        <v>1.440764081</v>
+        <v>1.3266246399999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -7922,16 +7917,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.2148706999999999E-2</v>
+        <v>1.209767939</v>
       </c>
       <c r="C6">
-        <v>0.23700928900000001</v>
+        <v>1.216379541</v>
       </c>
       <c r="D6">
-        <v>0.78627315600000003</v>
+        <v>1.2833249790000001</v>
       </c>
       <c r="E6">
-        <v>1.844072224</v>
+        <v>1.4702520640000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -7939,16 +7934,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.2215292E-2</v>
+        <v>1.535671896</v>
       </c>
       <c r="C7">
-        <v>0.23909171700000001</v>
+        <v>1.4212518590000001</v>
       </c>
       <c r="D7">
-        <v>0.82873205400000005</v>
+        <v>1.418161303</v>
       </c>
       <c r="E7">
-        <v>2.2140574040000001</v>
+        <v>1.577077214</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -7956,16 +7951,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3.221537E-2</v>
+        <v>1.854602343</v>
       </c>
       <c r="C8">
-        <v>0.23905536499999999</v>
+        <v>1.5989392499999999</v>
       </c>
       <c r="D8">
-        <v>0.85049989800000003</v>
+        <v>1.5271453989999999</v>
       </c>
       <c r="E8">
-        <v>2.5082710459999999</v>
+        <v>1.6580968410000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -7973,16 +7968,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.2215375999999997E-2</v>
+        <v>2.1605089030000002</v>
       </c>
       <c r="C9">
-        <v>0.239102747</v>
+        <v>1.7513704590000001</v>
       </c>
       <c r="D9">
-        <v>0.86085452500000004</v>
+        <v>1.615515313</v>
       </c>
       <c r="E9">
-        <v>2.732456209</v>
+        <v>1.720868646</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -7990,16 +7985,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3.2215375999999997E-2</v>
+        <v>2.4504152719999999</v>
       </c>
       <c r="C10">
-        <v>0.23911279999999999</v>
+        <v>1.8820732120000001</v>
       </c>
       <c r="D10">
-        <v>0.860258525</v>
+        <v>1.6879366499999999</v>
       </c>
       <c r="E10">
-        <v>2.8882100909999999</v>
+        <v>1.7706135119999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -8007,16 +8002,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.2215375999999997E-2</v>
+        <v>2.7232547820000002</v>
       </c>
       <c r="C11">
-        <v>0.23911487100000001</v>
+        <v>1.9947453639999999</v>
       </c>
       <c r="D11">
-        <v>0.85933168999999998</v>
+        <v>1.7481742069999999</v>
       </c>
       <c r="E11">
-        <v>3.005277446</v>
+        <v>1.8109810289999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -8024,16 +8019,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.2215375999999997E-2</v>
+        <v>2.9791196590000002</v>
       </c>
       <c r="C12">
-        <v>0.239115296</v>
+        <v>2.0927140569999998</v>
       </c>
       <c r="D12">
-        <v>0.85985331799999998</v>
+        <v>1.7991414450000001</v>
       </c>
       <c r="E12">
-        <v>3.0821550680000001</v>
+        <v>1.84455076</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -8041,16 +8036,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.2215375999999997E-2</v>
+        <v>3.218774233</v>
       </c>
       <c r="C13">
-        <v>0.23911538299999999</v>
+        <v>2.178787942</v>
       </c>
       <c r="D13">
-        <v>0.86006689300000005</v>
+        <v>1.843052403</v>
       </c>
       <c r="E13">
-        <v>3.1349551029999998</v>
+        <v>1.8731605419999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -8058,16 +8053,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.2215375999999997E-2</v>
+        <v>3.4433406030000002</v>
       </c>
       <c r="C14">
-        <v>0.23911540000000001</v>
+        <v>2.2552662379999999</v>
       </c>
       <c r="D14">
-        <v>0.86015311500000002</v>
+        <v>1.88157643</v>
       </c>
       <c r="E14">
-        <v>3.1725827290000002</v>
+        <v>1.898126457</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -8075,16 +8070,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.2215375999999997E-2</v>
+        <v>3.6540984380000001</v>
       </c>
       <c r="C15">
-        <v>0.23910288299999999</v>
+        <v>2.3240015380000001</v>
       </c>
       <c r="D15">
-        <v>0.86018769500000003</v>
+        <v>1.9159680690000001</v>
       </c>
       <c r="E15">
-        <v>3.196329843</v>
+        <v>1.9203939569999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -8092,16 +8087,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3.2215375999999997E-2</v>
+        <v>3.8523605839999999</v>
       </c>
       <c r="C16">
-        <v>0.23910288299999999</v>
+        <v>2.3864740229999999</v>
       </c>
       <c r="D16">
-        <v>0.86020150299999998</v>
+        <v>1.9471690239999999</v>
       </c>
       <c r="E16">
-        <v>3.2082232180000001</v>
+        <v>1.9406436460000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -8109,16 +8104,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3.2215375999999997E-2</v>
+        <v>4.0393987989999998</v>
       </c>
       <c r="C17">
-        <v>0.23910288399999999</v>
+        <v>2.443860999</v>
       </c>
       <c r="D17">
-        <v>0.86020701099999997</v>
+        <v>1.975886056</v>
       </c>
       <c r="E17">
-        <v>3.2135334109999998</v>
+        <v>1.959366242</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -8126,16 +8121,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3.2215375999999997E-2</v>
+        <v>4.2164022719999998</v>
       </c>
       <c r="C18">
-        <v>0.23910288399999999</v>
+        <v>2.497096703</v>
       </c>
       <c r="D18">
-        <v>0.86020920000000001</v>
+        <v>2.0026498290000001</v>
       </c>
       <c r="E18">
-        <v>3.2201323629999998</v>
+        <v>1.9769160539999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -8143,16 +8138,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3.2215343E-2</v>
+        <v>4.384457287</v>
       </c>
       <c r="C19">
-        <v>0.23910288399999999</v>
+        <v>2.5469217209999999</v>
       </c>
       <c r="D19">
-        <v>0.86021006499999997</v>
+        <v>2.0278591129999999</v>
       </c>
       <c r="E19">
-        <v>3.2247391080000001</v>
+        <v>1.9935493129999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -8160,16 +8155,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3.2215343E-2</v>
+        <v>4.5445401710000004</v>
       </c>
       <c r="C20">
-        <v>0.23910288399999999</v>
+        <v>2.5939230100000001</v>
       </c>
       <c r="D20">
-        <v>0.860009001</v>
+        <v>2.0518139340000001</v>
       </c>
       <c r="E20">
-        <v>3.2278067240000001</v>
+        <v>2.0094516809999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -8177,16 +8172,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3.2215343E-2</v>
+        <v>4.6975183530000004</v>
       </c>
       <c r="C21">
-        <v>0.23910288399999999</v>
+        <v>2.6385659330000002</v>
       </c>
       <c r="D21">
-        <v>0.86000913300000004</v>
+        <v>2.0747403879999999</v>
       </c>
       <c r="E21">
-        <v>3.2297245440000002</v>
+        <v>2.024758024</v>
       </c>
     </row>
   </sheetData>
@@ -8201,7 +8196,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8228,16 +8223,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.726094766</v>
+        <v>0.35758230499999999</v>
       </c>
       <c r="C2">
-        <v>0.77923099500000004</v>
+        <v>0.31503964899999998</v>
       </c>
       <c r="D2">
-        <v>0.76195865500000004</v>
+        <v>0.26969879899999999</v>
       </c>
       <c r="E2">
-        <v>0.69563969699999995</v>
+        <v>0.22969467299999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -8245,16 +8240,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.65749425299999997</v>
+        <v>0.42672908999999998</v>
       </c>
       <c r="C3">
-        <v>0.70308816299999999</v>
+        <v>0.36578413900000001</v>
       </c>
       <c r="D3">
-        <v>0.72159557299999999</v>
+        <v>0.30764681500000002</v>
       </c>
       <c r="E3">
-        <v>0.70259632100000002</v>
+        <v>0.25815946400000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -8262,16 +8257,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.64973596300000003</v>
+        <v>0.47855314700000001</v>
       </c>
       <c r="C4">
-        <v>0.68276588800000004</v>
+        <v>0.39589666400000001</v>
       </c>
       <c r="D4">
-        <v>0.69852466599999996</v>
+        <v>0.32358064399999997</v>
       </c>
       <c r="E4">
-        <v>0.69399091599999996</v>
+        <v>0.26703510000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -8279,16 +8274,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.64921077400000005</v>
+        <v>0.51514675099999996</v>
       </c>
       <c r="C5">
-        <v>0.67956310499999995</v>
+        <v>0.41320470399999998</v>
       </c>
       <c r="D5">
-        <v>0.69120798500000002</v>
+        <v>0.33052563800000001</v>
       </c>
       <c r="E5">
-        <v>0.68358019000000003</v>
+        <v>0.26996840999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -8296,16 +8291,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.64919084800000004</v>
+        <v>0.54048734600000004</v>
       </c>
       <c r="C6">
-        <v>0.67921149800000002</v>
+        <v>0.42250754299999999</v>
       </c>
       <c r="D6">
-        <v>0.68939822799999995</v>
+        <v>0.33342961799999998</v>
       </c>
       <c r="E6">
-        <v>0.67707563699999995</v>
+        <v>0.27094858100000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -8313,16 +8308,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.64918979399999999</v>
+        <v>0.55801940699999997</v>
       </c>
       <c r="C7">
-        <v>0.67917738299999997</v>
+        <v>0.42729956099999999</v>
       </c>
       <c r="D7">
-        <v>0.688961508</v>
+        <v>0.334592263</v>
       </c>
       <c r="E7">
-        <v>0.67343326199999998</v>
+        <v>0.27127869199999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -8330,16 +8325,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.64918979499999996</v>
+        <v>0.57020912099999999</v>
       </c>
       <c r="C8">
-        <v>0.67918103200000002</v>
+        <v>0.42971907100000001</v>
       </c>
       <c r="D8">
-        <v>0.68884653399999995</v>
+        <v>0.33504539700000002</v>
       </c>
       <c r="E8">
-        <v>0.67131917500000005</v>
+        <v>0.27139038900000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -8347,16 +8342,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.64918979499999996</v>
+        <v>0.57873681799999999</v>
       </c>
       <c r="C9">
-        <v>0.679181005</v>
+        <v>0.43093272199999999</v>
       </c>
       <c r="D9">
-        <v>0.68881520100000004</v>
+        <v>0.33521960099999998</v>
       </c>
       <c r="E9">
-        <v>0.67006593000000003</v>
+        <v>0.27142851699999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -8364,16 +8359,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.64918979499999996</v>
+        <v>0.58473984899999998</v>
       </c>
       <c r="C10">
-        <v>0.67918100100000001</v>
+        <v>0.43154235499999999</v>
       </c>
       <c r="D10">
-        <v>0.68884809199999997</v>
+        <v>0.335286274</v>
       </c>
       <c r="E10">
-        <v>0.669259987</v>
+        <v>0.271441708</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -8381,16 +8376,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.64918979499999996</v>
+        <v>0.58899130200000005</v>
       </c>
       <c r="C11">
-        <v>0.67918100000000003</v>
+        <v>0.43185045399999999</v>
       </c>
       <c r="D11">
-        <v>0.68886024999999995</v>
+        <v>0.335311839</v>
       </c>
       <c r="E11">
-        <v>0.66882967400000004</v>
+        <v>0.271446352</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -8398,16 +8393,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.64918979499999996</v>
+        <v>0.59202005000000002</v>
       </c>
       <c r="C12">
-        <v>0.67918100000000003</v>
+        <v>0.43200755299999999</v>
       </c>
       <c r="D12">
-        <v>0.68885909499999998</v>
+        <v>0.33532170300000003</v>
       </c>
       <c r="E12">
-        <v>0.66853244099999998</v>
+        <v>0.27144801899999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -8415,16 +8410,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.64918979499999996</v>
+        <v>0.59419021000000005</v>
       </c>
       <c r="C13">
-        <v>0.67918100000000003</v>
+        <v>0.43208850399999998</v>
       </c>
       <c r="D13">
-        <v>0.68885867000000001</v>
+        <v>0.33532554399999998</v>
       </c>
       <c r="E13">
-        <v>0.66839808999999994</v>
+        <v>0.27144863200000002</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -8432,16 +8427,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.64918979499999996</v>
+        <v>0.59575397100000005</v>
       </c>
       <c r="C14">
-        <v>0.67918100000000003</v>
+        <v>0.43213069199999998</v>
       </c>
       <c r="D14">
-        <v>0.68885851899999995</v>
+        <v>0.33532705499999998</v>
       </c>
       <c r="E14">
-        <v>0.66829448599999997</v>
+        <v>0.27144886099999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -8449,16 +8444,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.64918979499999996</v>
+        <v>0.59688699499999998</v>
       </c>
       <c r="C15">
-        <v>0.67918102800000002</v>
+        <v>0.43215293399999999</v>
       </c>
       <c r="D15">
-        <v>0.68885846500000003</v>
+        <v>0.335327657</v>
       </c>
       <c r="E15">
-        <v>0.66826145299999995</v>
+        <v>0.27144894899999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -8466,16 +8461,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.64918979499999996</v>
+        <v>0.59771232299999999</v>
       </c>
       <c r="C16">
-        <v>0.67918102800000002</v>
+        <v>0.43216479400000002</v>
       </c>
       <c r="D16">
-        <v>0.68885844500000004</v>
+        <v>0.33532789899999998</v>
       </c>
       <c r="E16">
-        <v>0.66825959599999996</v>
+        <v>0.27144898299999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -8483,16 +8478,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.64918979499999996</v>
+        <v>0.59831661300000005</v>
       </c>
       <c r="C17">
-        <v>0.67918102800000002</v>
+        <v>0.43217118700000001</v>
       </c>
       <c r="D17">
-        <v>0.68885843800000002</v>
+        <v>0.33532799699999999</v>
       </c>
       <c r="E17">
-        <v>0.66829000999999999</v>
+        <v>0.27144899700000003</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -8500,16 +8495,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.64918979499999996</v>
+        <v>0.59876123599999997</v>
       </c>
       <c r="C18">
-        <v>0.67918102800000002</v>
+        <v>0.43217466900000001</v>
       </c>
       <c r="D18">
-        <v>0.68885843499999999</v>
+        <v>0.33532803799999999</v>
       </c>
       <c r="E18">
-        <v>0.66828373699999999</v>
+        <v>0.27144900300000002</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -8517,16 +8512,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.64918912699999998</v>
+        <v>0.59908989999999995</v>
       </c>
       <c r="C19">
-        <v>0.67918102800000002</v>
+        <v>0.432176581</v>
       </c>
       <c r="D19">
-        <v>0.68885843400000002</v>
+        <v>0.33532805399999999</v>
       </c>
       <c r="E19">
-        <v>0.66827689999999995</v>
+        <v>0.27144900500000002</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -8534,16 +8529,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.64918912699999998</v>
+        <v>0.599333903</v>
       </c>
       <c r="C20">
-        <v>0.67918102800000002</v>
+        <v>0.432177641</v>
       </c>
       <c r="D20">
-        <v>0.68886019300000001</v>
+        <v>0.33532806100000001</v>
       </c>
       <c r="E20">
-        <v>0.66827247599999995</v>
+        <v>0.27144900599999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -8551,16 +8546,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.64918912699999998</v>
+        <v>0.59951578699999997</v>
       </c>
       <c r="C21">
-        <v>0.67918102800000002</v>
+        <v>0.432178232</v>
       </c>
       <c r="D21">
-        <v>0.68886019300000001</v>
+        <v>0.33532806399999998</v>
       </c>
       <c r="E21">
-        <v>0.66827026599999995</v>
+        <v>0.27144900599999999</v>
       </c>
     </row>
   </sheetData>
@@ -8575,7 +8570,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8602,16 +8597,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.980650036</v>
+        <v>0.83271283299999999</v>
       </c>
       <c r="C2">
-        <v>0.92058611199999996</v>
+        <v>0.701066207</v>
       </c>
       <c r="D2">
-        <v>0.82840527399999997</v>
+        <v>0.595737403</v>
       </c>
       <c r="E2">
-        <v>0.72296543400000002</v>
+        <v>0.50965847900000005</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -8619,16 +8614,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.93825375899999996</v>
+        <v>0.70195786699999996</v>
       </c>
       <c r="C3">
-        <v>0.88725318799999997</v>
+        <v>0.58501808399999999</v>
       </c>
       <c r="D3">
-        <v>0.82306905100000005</v>
+        <v>0.485106062</v>
       </c>
       <c r="E3">
-        <v>0.73764036499999996</v>
+        <v>0.39933551099999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -8636,16 +8631,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.93053849799999999</v>
+        <v>0.605480303</v>
       </c>
       <c r="C4">
-        <v>0.87169902200000005</v>
+        <v>0.51752624700000005</v>
       </c>
       <c r="D4">
-        <v>0.81183950299999996</v>
+        <v>0.43977316700000002</v>
       </c>
       <c r="E4">
-        <v>0.74461753399999997</v>
+        <v>0.36558017700000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -8653,16 +8648,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.92972328100000001</v>
+        <v>0.53723485299999996</v>
       </c>
       <c r="C5">
-        <v>0.86771158800000003</v>
+        <v>0.47839593000000002</v>
       </c>
       <c r="D5">
-        <v>0.80296807800000003</v>
+        <v>0.41970744300000001</v>
       </c>
       <c r="E5">
-        <v>0.73035262899999998</v>
+        <v>0.35427599999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -8670,16 +8665,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.929684552</v>
+        <v>0.48994965400000001</v>
       </c>
       <c r="C6">
-        <v>0.86704340599999996</v>
+        <v>0.45727283400000002</v>
       </c>
       <c r="D6">
-        <v>0.79922856099999995</v>
+        <v>0.41122691</v>
       </c>
       <c r="E6">
-        <v>0.71596585700000004</v>
+        <v>0.35043429100000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -8687,16 +8682,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.92967836299999995</v>
+        <v>0.457230046</v>
       </c>
       <c r="C7">
-        <v>0.866945615</v>
+        <v>0.44636821799999998</v>
       </c>
       <c r="D7">
-        <v>0.79802217600000003</v>
+        <v>0.40780766299999999</v>
       </c>
       <c r="E7">
-        <v>0.70636421999999999</v>
+        <v>0.349129413</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -8704,16 +8699,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.92967836100000001</v>
+        <v>0.43447976100000002</v>
       </c>
       <c r="C8">
-        <v>0.866954844</v>
+        <v>0.44085606999999999</v>
       </c>
       <c r="D8">
-        <v>0.79758105000000001</v>
+        <v>0.406468571</v>
       </c>
       <c r="E8">
-        <v>0.70032646899999995</v>
+        <v>0.348685409</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -8721,16 +8716,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.92967836100000001</v>
+        <v>0.41856390100000002</v>
       </c>
       <c r="C9">
-        <v>0.86695420099999998</v>
+        <v>0.43808936799999998</v>
       </c>
       <c r="D9">
-        <v>0.79741544499999994</v>
+        <v>0.40595194899999998</v>
       </c>
       <c r="E9">
-        <v>0.69654961299999996</v>
+        <v>0.34853326800000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -8738,16 +8733,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.92967836100000001</v>
+        <v>0.40735997499999999</v>
       </c>
       <c r="C10">
-        <v>0.86695408299999999</v>
+        <v>0.43669912500000002</v>
       </c>
       <c r="D10">
-        <v>0.79749990500000001</v>
+        <v>0.405753694</v>
       </c>
       <c r="E10">
-        <v>0.694274218</v>
+        <v>0.348480493</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -8755,16 +8750,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.92967836100000001</v>
+        <v>0.39942514800000001</v>
       </c>
       <c r="C11">
-        <v>0.86695406200000003</v>
+        <v>0.43599637600000002</v>
       </c>
       <c r="D11">
-        <v>0.79754134099999996</v>
+        <v>0.40567751499999999</v>
       </c>
       <c r="E11">
-        <v>0.692845924</v>
+        <v>0.348461878</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -8772,16 +8767,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.92967836100000001</v>
+        <v>0.39377235100000002</v>
       </c>
       <c r="C12">
-        <v>0.86695405800000003</v>
+        <v>0.43563800499999999</v>
       </c>
       <c r="D12">
-        <v>0.79753589199999997</v>
+        <v>0.40564807200000003</v>
       </c>
       <c r="E12">
-        <v>0.69198630299999997</v>
+        <v>0.34845518199999997</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -8789,16 +8784,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.92967836100000001</v>
+        <v>0.38972200600000001</v>
       </c>
       <c r="C13">
-        <v>0.86695405699999994</v>
+        <v>0.43545333000000003</v>
       </c>
       <c r="D13">
-        <v>0.79753387099999995</v>
+        <v>0.40563659200000002</v>
       </c>
       <c r="E13">
-        <v>0.691523938</v>
+        <v>0.34845271999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -8806,16 +8801,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.92967836100000001</v>
+        <v>0.38680343299999997</v>
       </c>
       <c r="C14">
-        <v>0.86695405699999994</v>
+        <v>0.43535708299999998</v>
       </c>
       <c r="D14">
-        <v>0.79753313400000003</v>
+        <v>0.40563206899999998</v>
       </c>
       <c r="E14">
-        <v>0.69119294899999995</v>
+        <v>0.34845179599999998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -8823,16 +8818,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.92967836100000001</v>
+        <v>0.38468877899999998</v>
       </c>
       <c r="C15">
-        <v>0.86695502999999996</v>
+        <v>0.43530633800000001</v>
       </c>
       <c r="D15">
-        <v>0.79753286599999995</v>
+        <v>0.40563026699999999</v>
       </c>
       <c r="E15">
-        <v>0.69104728800000004</v>
+        <v>0.34845144099999997</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -8840,16 +8835,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.92967836100000001</v>
+        <v>0.38314840300000003</v>
       </c>
       <c r="C16">
-        <v>0.86695502999999996</v>
+        <v>0.43527927900000002</v>
       </c>
       <c r="D16">
-        <v>0.79753276699999998</v>
+        <v>0.40562954099999998</v>
       </c>
       <c r="E16">
-        <v>0.69101715699999999</v>
+        <v>0.34845130200000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -8857,16 +8852,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.92967836100000001</v>
+        <v>0.382020568</v>
       </c>
       <c r="C17">
-        <v>0.86695502999999996</v>
+        <v>0.43526469200000001</v>
       </c>
       <c r="D17">
-        <v>0.79753273099999999</v>
+        <v>0.405629246</v>
       </c>
       <c r="E17">
-        <v>0.69107229400000003</v>
+        <v>0.34845124700000002</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -8874,16 +8869,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.92967836100000001</v>
+        <v>0.38119073199999998</v>
       </c>
       <c r="C18">
-        <v>0.86695502999999996</v>
+        <v>0.43525675000000003</v>
       </c>
       <c r="D18">
-        <v>0.79753271699999995</v>
+        <v>0.40562912499999998</v>
       </c>
       <c r="E18">
-        <v>0.69104395500000004</v>
+        <v>0.34845122499999998</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -8891,16 +8886,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.92967836400000003</v>
+        <v>0.38057732100000002</v>
       </c>
       <c r="C19">
-        <v>0.86695502999999996</v>
+        <v>0.43525238599999999</v>
       </c>
       <c r="D19">
-        <v>0.79753271199999998</v>
+        <v>0.40562907500000001</v>
       </c>
       <c r="E19">
-        <v>0.69102011900000004</v>
+        <v>0.34845121600000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -8908,16 +8903,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.92967836400000003</v>
+        <v>0.38012191699999998</v>
       </c>
       <c r="C20">
-        <v>0.86695502999999996</v>
+        <v>0.43524996799999999</v>
       </c>
       <c r="D20">
-        <v>0.79754003100000004</v>
+        <v>0.40562905399999999</v>
       </c>
       <c r="E20">
-        <v>0.69100509600000004</v>
+        <v>0.34845121299999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -8925,16 +8920,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.92967836400000003</v>
+        <v>0.37978245300000002</v>
       </c>
       <c r="C21">
-        <v>0.86695502999999996</v>
+        <v>0.435248619</v>
       </c>
       <c r="D21">
-        <v>0.79754002999999996</v>
+        <v>0.40562904500000002</v>
       </c>
       <c r="E21">
-        <v>0.690997313</v>
+        <v>0.34845121099999998</v>
       </c>
     </row>
   </sheetData>
@@ -8948,8 +8943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8976,16 +8971,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.267415925</v>
+        <v>0.52596712199999995</v>
       </c>
       <c r="C2">
-        <v>0.18736978500000001</v>
+        <v>0.45914265300000001</v>
       </c>
       <c r="D2">
-        <v>0.148672375</v>
+        <v>0.40079779599999998</v>
       </c>
       <c r="E2">
-        <v>0.13339302</v>
+        <v>0.346120494</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -8993,16 +8988,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.28378962299999999</v>
+        <v>0.45999001900000003</v>
       </c>
       <c r="C3">
-        <v>0.20104085099999999</v>
+        <v>0.394060509</v>
       </c>
       <c r="D3">
-        <v>0.14215206699999999</v>
+        <v>0.32328309100000002</v>
       </c>
       <c r="E3">
-        <v>0.101552237</v>
+        <v>0.25358784899999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -9010,16 +9005,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.28329694399999999</v>
+        <v>0.39913509899999999</v>
       </c>
       <c r="C4">
-        <v>0.201050583</v>
+        <v>0.34916529499999999</v>
       </c>
       <c r="D4">
-        <v>0.14079139900000001</v>
+        <v>0.28881318099999997</v>
       </c>
       <c r="E4">
-        <v>9.5899423999999997E-2</v>
+        <v>0.22344106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -9027,16 +9022,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.28314011300000003</v>
+        <v>0.35359056999999999</v>
       </c>
       <c r="C5">
-        <v>0.20058846499999999</v>
+        <v>0.32000051600000001</v>
       </c>
       <c r="D5">
-        <v>0.139662909</v>
+        <v>0.271629075</v>
       </c>
       <c r="E5">
-        <v>9.3306976999999999E-2</v>
+        <v>0.21244064300000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -9044,16 +9039,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.28313070800000001</v>
+        <v>0.32158660100000003</v>
       </c>
       <c r="C6">
-        <v>0.200479186</v>
+        <v>0.30346786999999997</v>
       </c>
       <c r="D6">
-        <v>0.13910614399999999</v>
+        <v>0.26384175100000001</v>
       </c>
       <c r="E6">
-        <v>9.1420151000000005E-2</v>
+        <v>0.20849357099999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -9061,16 +9056,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.28312908399999998</v>
+        <v>0.29935751999999999</v>
       </c>
       <c r="C7">
-        <v>0.20046003400000001</v>
+        <v>0.29473039899999998</v>
       </c>
       <c r="D7">
-        <v>0.13890459699999999</v>
+        <v>0.260566144</v>
       </c>
       <c r="E7">
-        <v>9.0177816999999993E-2</v>
+        <v>0.20710684700000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -9078,16 +9073,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.283129083</v>
+        <v>0.28388558600000002</v>
       </c>
       <c r="C8">
-        <v>0.20046164499999999</v>
+        <v>0.29025980200000001</v>
       </c>
       <c r="D8">
-        <v>0.13882782799999999</v>
+        <v>0.25924710400000001</v>
       </c>
       <c r="E8">
-        <v>8.9392445000000001E-2</v>
+        <v>0.206624945</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -9095,16 +9090,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.283129083</v>
+        <v>0.27305854299999999</v>
       </c>
       <c r="C9">
-        <v>0.20046149399999999</v>
+        <v>0.28800105199999998</v>
       </c>
       <c r="D9">
-        <v>0.138799265</v>
+        <v>0.25872812899999997</v>
       </c>
       <c r="E9">
-        <v>8.8896958999999998E-2</v>
+        <v>0.206457574</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -9112,16 +9107,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.283129083</v>
+        <v>0.26543628800000002</v>
       </c>
       <c r="C10">
-        <v>0.200461466</v>
+        <v>0.28686188699999998</v>
       </c>
       <c r="D10">
-        <v>0.13880811900000001</v>
+        <v>0.25852605200000001</v>
       </c>
       <c r="E10">
-        <v>8.8599724000000005E-2</v>
+        <v>0.206399002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -9129,16 +9124,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.283129083</v>
+        <v>0.26003795299999999</v>
       </c>
       <c r="C11">
-        <v>0.20046146100000001</v>
+        <v>0.28628486600000003</v>
       </c>
       <c r="D11">
-        <v>0.138813505</v>
+        <v>0.25844752999999998</v>
       </c>
       <c r="E11">
-        <v>8.8412490999999996E-2</v>
+        <v>0.206378222</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -9146,16 +9141,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.283129083</v>
+        <v>0.25619213899999999</v>
       </c>
       <c r="C12">
-        <v>0.20046146000000001</v>
+        <v>0.28599026500000002</v>
       </c>
       <c r="D12">
-        <v>0.13881253199999999</v>
+        <v>0.25841691</v>
       </c>
       <c r="E12">
-        <v>8.8300043999999994E-2</v>
+        <v>0.20637071800000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -9163,16 +9158,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.283129083</v>
+        <v>0.25343652900000002</v>
       </c>
       <c r="C13">
-        <v>0.20046145900000001</v>
+        <v>0.28583835000000002</v>
       </c>
       <c r="D13">
-        <v>0.13881217200000001</v>
+        <v>0.25840488499999997</v>
       </c>
       <c r="E13">
-        <v>8.8236551999999996E-2</v>
+        <v>0.20636795199999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -9180,16 +9175,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.283129083</v>
+        <v>0.251450909</v>
       </c>
       <c r="C14">
-        <v>0.20046145900000001</v>
+        <v>0.28575914600000002</v>
       </c>
       <c r="D14">
-        <v>0.13881204</v>
+        <v>0.25840011800000001</v>
       </c>
       <c r="E14">
-        <v>8.8193360999999998E-2</v>
+        <v>0.20636691099999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -9197,16 +9192,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.283129083</v>
+        <v>0.25001222499999998</v>
       </c>
       <c r="C15">
-        <v>0.20046145500000001</v>
+        <v>0.28571737800000002</v>
       </c>
       <c r="D15">
-        <v>0.138811992</v>
+        <v>0.25839821000000002</v>
       </c>
       <c r="E15">
-        <v>8.8173197999999994E-2</v>
+        <v>0.206366512</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -9214,16 +9209,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.283129083</v>
+        <v>0.248964246</v>
       </c>
       <c r="C16">
-        <v>0.20046145500000001</v>
+        <v>0.28569510300000001</v>
       </c>
       <c r="D16">
-        <v>0.138811975</v>
+        <v>0.25839743799999998</v>
       </c>
       <c r="E16">
-        <v>8.8167835999999999E-2</v>
+        <v>0.206366356</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -9231,16 +9226,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.283129083</v>
+        <v>0.24819693500000001</v>
       </c>
       <c r="C17">
-        <v>0.20046145500000001</v>
+        <v>0.28568309400000003</v>
       </c>
       <c r="D17">
-        <v>0.13881196800000001</v>
+        <v>0.25839712300000001</v>
       </c>
       <c r="E17">
-        <v>8.8170603E-2</v>
+        <v>0.20636629400000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -9248,16 +9243,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.283129083</v>
+        <v>0.24763236499999999</v>
       </c>
       <c r="C18">
-        <v>0.20046145500000001</v>
+        <v>0.28567655600000003</v>
       </c>
       <c r="D18">
-        <v>0.13881196600000001</v>
+        <v>0.25839699300000002</v>
       </c>
       <c r="E18">
-        <v>8.8166570999999999E-2</v>
+        <v>0.20636626899999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -9265,16 +9260,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.28312975099999999</v>
+        <v>0.247215037</v>
       </c>
       <c r="C19">
-        <v>0.20046145500000001</v>
+        <v>0.28567296199999997</v>
       </c>
       <c r="D19">
-        <v>0.13881196500000001</v>
+        <v>0.25839693899999999</v>
       </c>
       <c r="E19">
-        <v>8.8163399000000003E-2</v>
+        <v>0.206366259</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -9282,16 +9277,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.28312975099999999</v>
+        <v>0.24690520699999999</v>
       </c>
       <c r="C20">
-        <v>0.20046145500000001</v>
+        <v>0.28567097200000002</v>
       </c>
       <c r="D20">
-        <v>0.13881262999999999</v>
+        <v>0.258396917</v>
       </c>
       <c r="E20">
-        <v>8.8161404999999998E-2</v>
+        <v>0.206366254</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -9299,16 +9294,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.28312975099999999</v>
+        <v>0.24667425600000001</v>
       </c>
       <c r="C21">
-        <v>0.20046145500000001</v>
+        <v>0.28566986100000002</v>
       </c>
       <c r="D21">
-        <v>0.13881262999999999</v>
+        <v>0.25839690700000001</v>
       </c>
       <c r="E21">
-        <v>8.8160349999999998E-2</v>
+        <v>0.206366253</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Data/2.xlsx
+++ b/Excel_Data/2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9372" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9372" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Лист5" sheetId="5" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="Лист2" sheetId="2" r:id="rId3"/>
     <sheet name="Лист3" sheetId="3" r:id="rId4"/>
     <sheet name="Лист4" sheetId="4" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
+    <sheet name="Лист7" sheetId="7" r:id="rId7"/>
+    <sheet name="Лист8" sheetId="8" r:id="rId8"/>
+    <sheet name="Лист9" sheetId="9" r:id="rId9"/>
+    <sheet name="Лист10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="6">
   <si>
     <t>K</t>
   </si>
@@ -43,6 +48,9 @@
   </si>
   <si>
     <t>T = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вместо Map стационарный пуассоновский </t>
   </si>
 </sst>
 </file>
@@ -797,11 +805,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1970021488"/>
-        <c:axId val="1970024752"/>
+        <c:axId val="-807433328"/>
+        <c:axId val="-807425168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1970021488"/>
+        <c:axId val="-807433328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +852,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970024752"/>
+        <c:crossAx val="-807425168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -852,7 +860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1970024752"/>
+        <c:axId val="-807425168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +911,887 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970021488"/>
+        <c:crossAx val="-807433328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист10!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист10!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист10!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.45595530899999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36417316599999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27526286500000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.210704841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.167377533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.138989209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12055289800000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10862807200000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10093181499999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5971150000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2776334000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0719842999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9396529000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8545181000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7997545999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.7645308000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.7418760999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.727306E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.7179356E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.7119093999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист10!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист10!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист10!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.39800466899999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31794135299999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.249076882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.203745337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17832390300000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16508335099999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15842461799999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.155132087</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15351735699999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15272861700000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15234409300000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.152156808</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15206563200000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15202125499999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15199965800000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15198914799999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15198403299999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.151981545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.151980333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.151979744</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист10!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист10!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист10!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.35023944699999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26697928700000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21524697000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18691184299999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17385927100000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16840634600000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.166250868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16542676000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16511835699999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.165004607</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16496307900000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.164948029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16494260499999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16494065799999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.164939961</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16493971299999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16493962400000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.164939592</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.164939581</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.164939577</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист10!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист10!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист10!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.30727775200000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.216022888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17621915399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.159135689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15266328400000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15040408699999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14965475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14941439400000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14933908000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14931588100000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14930882700000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14930670400000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14930607100000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.149305883</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.149305827</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14930581100000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14930580600000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14930580500000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14930580399999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.14930580399999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-804421456"/>
+        <c:axId val="-804414384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-804421456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-804414384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-804414384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-804421456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1401,11 +2289,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1970019312"/>
-        <c:axId val="1970023664"/>
+        <c:axId val="-815684864"/>
+        <c:axId val="-815687040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1970019312"/>
+        <c:axId val="-815684864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +2336,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970023664"/>
+        <c:crossAx val="-815687040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1456,7 +2344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1970023664"/>
+        <c:axId val="-815687040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,7 +2395,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970019312"/>
+        <c:crossAx val="-815684864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2281,11 +3169,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1970014416"/>
-        <c:axId val="1970019856"/>
+        <c:axId val="-815688128"/>
+        <c:axId val="-815680512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1970014416"/>
+        <c:axId val="-815688128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2328,7 +3216,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970019856"/>
+        <c:crossAx val="-815680512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2336,7 +3224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1970019856"/>
+        <c:axId val="-815680512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,7 +3275,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970014416"/>
+        <c:crossAx val="-815688128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3161,11 +4049,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1970025296"/>
-        <c:axId val="1970020944"/>
+        <c:axId val="-815676160"/>
+        <c:axId val="-815689216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1970025296"/>
+        <c:axId val="-815676160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3208,7 +4096,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970020944"/>
+        <c:crossAx val="-815689216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3216,7 +4104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1970020944"/>
+        <c:axId val="-815689216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3267,7 +4155,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970025296"/>
+        <c:crossAx val="-815676160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4041,11 +4929,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1970025840"/>
-        <c:axId val="1970015504"/>
+        <c:axId val="-815686496"/>
+        <c:axId val="-815678880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1970025840"/>
+        <c:axId val="-815686496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4088,7 +4976,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970015504"/>
+        <c:crossAx val="-815678880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4096,7 +4984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1970015504"/>
+        <c:axId val="-815678880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4147,7 +5035,3589 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970025840"/>
+        <c:crossAx val="-815686496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист6!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист6!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.2873373260000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.007368222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79502442699999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64806217600000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55043232200000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48661401300000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44519083500000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41840124899999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.401111826</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38996791200000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38279090900000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37817110300000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37519834099999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37328583100000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.37205559599999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.37126430999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.37075538400000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.37042807300000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37021757199999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.370082195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист6!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист6!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист6!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.4390439399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.157861759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97997980100000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87413622800000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81667863799999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78711172399999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77231215600000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76500778300000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76142809700000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.759679989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75882782800000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75841278599999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75821073100000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.758112385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75806452400000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75804123199999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75802989799999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.758024382</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75802169799999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.75802039200000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист6!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист6!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист6!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.653884355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3506716759999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2093623419999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1410856110000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.110924856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.098496605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.093595187</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0917161609999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.091009524</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0907473969999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0906511409999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0906160650000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0906033580000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.090598776</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0905971299999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0905965399999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.090596329</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.090596254</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.090596227</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.090596218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист6!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист6!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист6!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.9400769419999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.596290843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4800325190000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.435715737</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.419390108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.413644326</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.41169101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4110435809999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4108330280000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4107655539999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.410744185</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.410737482</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4107353970000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4107347530000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4107345549999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.410734494</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.410734476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.41073447</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.410734468</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.410734468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-807432240"/>
+        <c:axId val="-807424080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-807432240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-807424080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-807424080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-807432240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист7!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист7!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист7!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.16933299700000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43205842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86043255600000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4068642659999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0207222410000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6668882709999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.322918145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9749303550000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6145818539999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2370433700000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8396863740000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.4212458989999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9812926790000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5199028800000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0374526260000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5344907380000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0116602579999991</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.4696502969999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.9091667000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.33091434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист7!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист7!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист7!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.302370378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60258109000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0027798880000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.46874945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9470839959999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4068306609999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.835110367</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.228347716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5870345019999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9132332729999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2094930919999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4784052470000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.722433315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9438570630000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.144762128</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3270472279999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.4924373319999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.642498239</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7786507949999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.902184171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист7!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист7!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист7!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.40721404500000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76208188200000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1396976400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5255705799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.887615872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2115368000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4956063519999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7428850339999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9575969519999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1438859880000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3054802259999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4456468729999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5672269160000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6726855020000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7641607019999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8435068499999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9123322709999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9720319740000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0238159739999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0687338349999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист7!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист7!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист7!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.491163664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90987577200000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2887892670000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6264844089999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9170040610000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1622636979999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3679487379999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5401458649999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6842663789999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8048923270000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9058600640000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9903765889999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0611237939999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1203455</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1699195310000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2114176360000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.246155457</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2752342919999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2995760249999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3199523549999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1119218208"/>
+        <c:axId val="-1119223104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1119218208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1119223104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1119223104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1119218208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист8!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист8!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист8!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.44309492700000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.544472281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62175669499999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67505156300000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.710412775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73351872600000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74851463699999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75821261600000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76447142700000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76850553899999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77110362099999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77277599600000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77385213900000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77454446899999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77498981499999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77527626199999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.77546049399999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77557898000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77565518200000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77570418900000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист8!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист8!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист8!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.40624680400000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48320016100000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.533678443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56325018999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57913150800000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58725173900000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59130121999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59329560400000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.594271828</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59474824000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59498039400000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59509344200000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59514847100000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59517525299999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59518828700000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59519462999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59519771600000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59519921799999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59519994899999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59520030499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист8!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист8!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист8!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.36182211800000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42017528599999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44974012800000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46362998999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46956710400000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47194545999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47286149900000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47320574700000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47333304599999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47337960000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47339649099999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47340258499999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.473404773</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47340555699999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.473405837</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47340593600000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47340597200000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.47340598499999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47340598900000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47340599100000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист8!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист8!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист8!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.31614078400000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35997505600000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37655398200000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38267277999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38480203099999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38550765799999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38573382000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38580463100000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.385826428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38583305099999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38583504400000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38583563799999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38583581500000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.385835867</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38583588200000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38583588600000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38583588800000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38583588800000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38583588800000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38583588800000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-804411664"/>
+        <c:axId val="-804412752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-804411664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-804412752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-804412752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-804411664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист9!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист9!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист9!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.83066700199999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62512023900000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46794487600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35940524499999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28736646300000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24029082199999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.209737864</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18997892399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17722703100000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16900780500000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16371438999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16030704100000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.158114474</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15670389800000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15579653600000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.155212921</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15483756100000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15459615299999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15444089699999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15434104900000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист9!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист9!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист9!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.69762962100000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52285305299999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40757837800000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33961739299999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30302831800000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28429929799999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27495454200000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27035109400000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26809750599999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.266997659</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26646168999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26620069800000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26607365100000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26601181800000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26598172599999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26596708200000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.265959956</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26595648900000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26595480100000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26595397999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист9!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист9!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист9!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.592785954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.439073826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36077814499999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.323507869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30746463699999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30101082099999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.298518424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29758007600000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29723264399999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29710546799999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29705929399999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.297042629</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29703664099999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29703449599999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29703373</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.297033457</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29703336000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29703332500000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29703331300000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.297033308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист9!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист9!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист9!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.50883633500000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37078285599999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31819877800000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.298426105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29146529999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28914095299999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28839207500000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28815670599999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28808404700000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28806191799999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28805524900000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28805325599999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28805266400000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28805248900000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28805243800000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.288052423</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28805241799999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28805241700000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28805241700000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28805241700000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-804424176"/>
+        <c:axId val="-804424720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-804424176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-804424720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-804424720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-804424176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4229,6 +8699,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4428,6 +8938,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4944,7 +9614,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5460,7 +10130,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5976,7 +10646,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6492,7 +11162,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7008,20 +11678,2635 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7162,6 +14447,146 @@
       <xdr:colOff>259080</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7449,7 +14874,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7809,6 +15234,379 @@
       </c>
       <c r="E21">
         <v>2.4522455760000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.45595530899999998</v>
+      </c>
+      <c r="C2">
+        <v>0.39800466899999998</v>
+      </c>
+      <c r="D2">
+        <v>0.35023944699999998</v>
+      </c>
+      <c r="E2">
+        <v>0.30727775200000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.36417316599999999</v>
+      </c>
+      <c r="C3">
+        <v>0.31794135299999998</v>
+      </c>
+      <c r="D3">
+        <v>0.26697928700000001</v>
+      </c>
+      <c r="E3">
+        <v>0.216022888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.27526286500000002</v>
+      </c>
+      <c r="C4">
+        <v>0.249076882</v>
+      </c>
+      <c r="D4">
+        <v>0.21524697000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.17621915399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.210704841</v>
+      </c>
+      <c r="C5">
+        <v>0.203745337</v>
+      </c>
+      <c r="D5">
+        <v>0.18691184299999999</v>
+      </c>
+      <c r="E5">
+        <v>0.159135689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.167377533</v>
+      </c>
+      <c r="C6">
+        <v>0.17832390300000001</v>
+      </c>
+      <c r="D6">
+        <v>0.17385927100000001</v>
+      </c>
+      <c r="E6">
+        <v>0.15266328400000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.138989209</v>
+      </c>
+      <c r="C7">
+        <v>0.16508335099999999</v>
+      </c>
+      <c r="D7">
+        <v>0.16840634600000001</v>
+      </c>
+      <c r="E7">
+        <v>0.15040408699999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.12055289800000001</v>
+      </c>
+      <c r="C8">
+        <v>0.15842461799999999</v>
+      </c>
+      <c r="D8">
+        <v>0.166250868</v>
+      </c>
+      <c r="E8">
+        <v>0.14965475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.10862807200000001</v>
+      </c>
+      <c r="C9">
+        <v>0.155132087</v>
+      </c>
+      <c r="D9">
+        <v>0.16542676000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.14941439400000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.10093181499999999</v>
+      </c>
+      <c r="C10">
+        <v>0.15351735699999999</v>
+      </c>
+      <c r="D10">
+        <v>0.16511835699999999</v>
+      </c>
+      <c r="E10">
+        <v>0.14933908000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>9.5971150000000005E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.15272861700000001</v>
+      </c>
+      <c r="D11">
+        <v>0.165004607</v>
+      </c>
+      <c r="E11">
+        <v>0.14931588100000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>9.2776334000000002E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.15234409300000001</v>
+      </c>
+      <c r="D12">
+        <v>0.16496307900000001</v>
+      </c>
+      <c r="E12">
+        <v>0.14930882700000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>9.0719842999999994E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.152156808</v>
+      </c>
+      <c r="D13">
+        <v>0.164948029</v>
+      </c>
+      <c r="E13">
+        <v>0.14930670400000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>8.9396529000000002E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.15206563200000001</v>
+      </c>
+      <c r="D14">
+        <v>0.16494260499999999</v>
+      </c>
+      <c r="E14">
+        <v>0.14930607100000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>8.8545181000000001E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.15202125499999999</v>
+      </c>
+      <c r="D15">
+        <v>0.16494065799999999</v>
+      </c>
+      <c r="E15">
+        <v>0.149305883</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8.7997545999999996E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.15199965800000001</v>
+      </c>
+      <c r="D16">
+        <v>0.164939961</v>
+      </c>
+      <c r="E16">
+        <v>0.149305827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>8.7645308000000005E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.15198914799999999</v>
+      </c>
+      <c r="D17">
+        <v>0.16493971299999999</v>
+      </c>
+      <c r="E17">
+        <v>0.14930581100000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>8.7418760999999998E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.15198403299999999</v>
+      </c>
+      <c r="D18">
+        <v>0.16493962400000001</v>
+      </c>
+      <c r="E18">
+        <v>0.14930580600000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>8.727306E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.151981545</v>
+      </c>
+      <c r="D19">
+        <v>0.164939592</v>
+      </c>
+      <c r="E19">
+        <v>0.14930580500000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>8.7179356E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.151980333</v>
+      </c>
+      <c r="D20">
+        <v>0.164939581</v>
+      </c>
+      <c r="E20">
+        <v>0.14930580399999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>8.7119093999999994E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.151979744</v>
+      </c>
+      <c r="D21">
+        <v>0.164939577</v>
+      </c>
+      <c r="E21">
+        <v>0.14930580399999999</v>
       </c>
     </row>
   </sheetData>
@@ -7822,7 +15620,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8943,7 +16741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
@@ -9310,4 +17108,1501 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.2873373260000001</v>
+      </c>
+      <c r="C2">
+        <v>1.4390439399999999</v>
+      </c>
+      <c r="D2">
+        <v>1.653884355</v>
+      </c>
+      <c r="E2">
+        <v>1.9400769419999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.007368222</v>
+      </c>
+      <c r="C3">
+        <v>1.157861759</v>
+      </c>
+      <c r="D3">
+        <v>1.3506716759999999</v>
+      </c>
+      <c r="E3">
+        <v>1.596290843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.79502442699999998</v>
+      </c>
+      <c r="C4">
+        <v>0.97997980100000004</v>
+      </c>
+      <c r="D4">
+        <v>1.2093623419999999</v>
+      </c>
+      <c r="E4">
+        <v>1.4800325190000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.64806217600000005</v>
+      </c>
+      <c r="C5">
+        <v>0.87413622800000002</v>
+      </c>
+      <c r="D5">
+        <v>1.1410856110000001</v>
+      </c>
+      <c r="E5">
+        <v>1.435715737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.55043232200000003</v>
+      </c>
+      <c r="C6">
+        <v>0.81667863799999996</v>
+      </c>
+      <c r="D6">
+        <v>1.110924856</v>
+      </c>
+      <c r="E6">
+        <v>1.419390108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.48661401300000001</v>
+      </c>
+      <c r="C7">
+        <v>0.78711172399999996</v>
+      </c>
+      <c r="D7">
+        <v>1.098496605</v>
+      </c>
+      <c r="E7">
+        <v>1.413644326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.44519083500000001</v>
+      </c>
+      <c r="C8">
+        <v>0.77231215600000003</v>
+      </c>
+      <c r="D8">
+        <v>1.093595187</v>
+      </c>
+      <c r="E8">
+        <v>1.41169101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.41840124899999998</v>
+      </c>
+      <c r="C9">
+        <v>0.76500778300000005</v>
+      </c>
+      <c r="D9">
+        <v>1.0917161609999999</v>
+      </c>
+      <c r="E9">
+        <v>1.4110435809999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.401111826</v>
+      </c>
+      <c r="C10">
+        <v>0.76142809700000003</v>
+      </c>
+      <c r="D10">
+        <v>1.091009524</v>
+      </c>
+      <c r="E10">
+        <v>1.4108330280000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.38996791200000003</v>
+      </c>
+      <c r="C11">
+        <v>0.759679989</v>
+      </c>
+      <c r="D11">
+        <v>1.0907473969999999</v>
+      </c>
+      <c r="E11">
+        <v>1.4107655539999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.38279090900000001</v>
+      </c>
+      <c r="C12">
+        <v>0.75882782800000004</v>
+      </c>
+      <c r="D12">
+        <v>1.0906511409999999</v>
+      </c>
+      <c r="E12">
+        <v>1.410744185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.37817110300000001</v>
+      </c>
+      <c r="C13">
+        <v>0.75841278599999995</v>
+      </c>
+      <c r="D13">
+        <v>1.0906160650000001</v>
+      </c>
+      <c r="E13">
+        <v>1.410737482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.37519834099999999</v>
+      </c>
+      <c r="C14">
+        <v>0.75821073100000003</v>
+      </c>
+      <c r="D14">
+        <v>1.0906033580000001</v>
+      </c>
+      <c r="E14">
+        <v>1.4107353970000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.37328583100000001</v>
+      </c>
+      <c r="C15">
+        <v>0.758112385</v>
+      </c>
+      <c r="D15">
+        <v>1.090598776</v>
+      </c>
+      <c r="E15">
+        <v>1.4107347530000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.37205559599999999</v>
+      </c>
+      <c r="C16">
+        <v>0.75806452400000002</v>
+      </c>
+      <c r="D16">
+        <v>1.0905971299999999</v>
+      </c>
+      <c r="E16">
+        <v>1.4107345549999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.37126430999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.75804123199999995</v>
+      </c>
+      <c r="D17">
+        <v>1.0905965399999999</v>
+      </c>
+      <c r="E17">
+        <v>1.410734494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.37075538400000002</v>
+      </c>
+      <c r="C18">
+        <v>0.75802989799999998</v>
+      </c>
+      <c r="D18">
+        <v>1.090596329</v>
+      </c>
+      <c r="E18">
+        <v>1.410734476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.37042807300000002</v>
+      </c>
+      <c r="C19">
+        <v>0.758024382</v>
+      </c>
+      <c r="D19">
+        <v>1.090596254</v>
+      </c>
+      <c r="E19">
+        <v>1.41073447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.37021757199999999</v>
+      </c>
+      <c r="C20">
+        <v>0.75802169799999997</v>
+      </c>
+      <c r="D20">
+        <v>1.090596227</v>
+      </c>
+      <c r="E20">
+        <v>1.410734468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.370082195</v>
+      </c>
+      <c r="C21">
+        <v>0.75802039200000004</v>
+      </c>
+      <c r="D21">
+        <v>1.090596218</v>
+      </c>
+      <c r="E21">
+        <v>1.410734468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.16933299700000001</v>
+      </c>
+      <c r="C2">
+        <v>0.302370378</v>
+      </c>
+      <c r="D2">
+        <v>0.40721404500000002</v>
+      </c>
+      <c r="E2">
+        <v>0.491163664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.43205842</v>
+      </c>
+      <c r="C3">
+        <v>0.60258109000000004</v>
+      </c>
+      <c r="D3">
+        <v>0.76208188200000004</v>
+      </c>
+      <c r="E3">
+        <v>0.90987577200000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.86043255600000002</v>
+      </c>
+      <c r="C4">
+        <v>1.0027798880000001</v>
+      </c>
+      <c r="D4">
+        <v>1.1396976400000001</v>
+      </c>
+      <c r="E4">
+        <v>1.2887892670000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.4068642659999999</v>
+      </c>
+      <c r="C5">
+        <v>1.46874945</v>
+      </c>
+      <c r="D5">
+        <v>1.5255705799999999</v>
+      </c>
+      <c r="E5">
+        <v>1.6264844089999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.0207222410000001</v>
+      </c>
+      <c r="C6">
+        <v>1.9470839959999999</v>
+      </c>
+      <c r="D6">
+        <v>1.887615872</v>
+      </c>
+      <c r="E6">
+        <v>1.9170040610000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.6668882709999999</v>
+      </c>
+      <c r="C7">
+        <v>2.4068306609999999</v>
+      </c>
+      <c r="D7">
+        <v>2.2115368000000002</v>
+      </c>
+      <c r="E7">
+        <v>2.1622636979999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3.322918145</v>
+      </c>
+      <c r="C8">
+        <v>2.835110367</v>
+      </c>
+      <c r="D8">
+        <v>2.4956063519999998</v>
+      </c>
+      <c r="E8">
+        <v>2.3679487379999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3.9749303550000001</v>
+      </c>
+      <c r="C9">
+        <v>3.228347716</v>
+      </c>
+      <c r="D9">
+        <v>2.7428850339999999</v>
+      </c>
+      <c r="E9">
+        <v>2.5401458649999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4.6145818539999999</v>
+      </c>
+      <c r="C10">
+        <v>3.5870345019999998</v>
+      </c>
+      <c r="D10">
+        <v>2.9575969519999998</v>
+      </c>
+      <c r="E10">
+        <v>2.6842663789999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5.2370433700000003</v>
+      </c>
+      <c r="C11">
+        <v>3.9132332729999999</v>
+      </c>
+      <c r="D11">
+        <v>3.1438859880000001</v>
+      </c>
+      <c r="E11">
+        <v>2.8048923270000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5.8396863740000002</v>
+      </c>
+      <c r="C12">
+        <v>4.2094930919999998</v>
+      </c>
+      <c r="D12">
+        <v>3.3054802259999998</v>
+      </c>
+      <c r="E12">
+        <v>2.9058600640000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6.4212458989999996</v>
+      </c>
+      <c r="C13">
+        <v>4.4784052470000004</v>
+      </c>
+      <c r="D13">
+        <v>3.4456468729999998</v>
+      </c>
+      <c r="E13">
+        <v>2.9903765889999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6.9812926790000001</v>
+      </c>
+      <c r="C14">
+        <v>4.722433315</v>
+      </c>
+      <c r="D14">
+        <v>3.5672269160000001</v>
+      </c>
+      <c r="E14">
+        <v>3.0611237939999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7.5199028800000001</v>
+      </c>
+      <c r="C15">
+        <v>4.9438570630000003</v>
+      </c>
+      <c r="D15">
+        <v>3.6726855020000002</v>
+      </c>
+      <c r="E15">
+        <v>3.1203455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8.0374526260000003</v>
+      </c>
+      <c r="C16">
+        <v>5.144762128</v>
+      </c>
+      <c r="D16">
+        <v>3.7641607019999999</v>
+      </c>
+      <c r="E16">
+        <v>3.1699195310000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>8.5344907380000006</v>
+      </c>
+      <c r="C17">
+        <v>5.3270472279999996</v>
+      </c>
+      <c r="D17">
+        <v>3.8435068499999998</v>
+      </c>
+      <c r="E17">
+        <v>3.2114176360000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>9.0116602579999991</v>
+      </c>
+      <c r="C18">
+        <v>5.4924373319999997</v>
+      </c>
+      <c r="D18">
+        <v>3.9123322709999999</v>
+      </c>
+      <c r="E18">
+        <v>3.246155457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>9.4696502969999994</v>
+      </c>
+      <c r="C19">
+        <v>5.642498239</v>
+      </c>
+      <c r="D19">
+        <v>3.9720319740000001</v>
+      </c>
+      <c r="E19">
+        <v>3.2752342919999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>9.9091667000000001</v>
+      </c>
+      <c r="C20">
+        <v>5.7786507949999999</v>
+      </c>
+      <c r="D20">
+        <v>4.0238159739999997</v>
+      </c>
+      <c r="E20">
+        <v>3.2995760249999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10.33091434</v>
+      </c>
+      <c r="C21">
+        <v>5.902184171</v>
+      </c>
+      <c r="D21">
+        <v>4.0687338349999997</v>
+      </c>
+      <c r="E21">
+        <v>3.3199523549999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.44309492700000003</v>
+      </c>
+      <c r="C2">
+        <v>0.40624680400000002</v>
+      </c>
+      <c r="D2">
+        <v>0.36182211800000003</v>
+      </c>
+      <c r="E2">
+        <v>0.31614078400000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.544472281</v>
+      </c>
+      <c r="C3">
+        <v>0.48320016100000002</v>
+      </c>
+      <c r="D3">
+        <v>0.42017528599999998</v>
+      </c>
+      <c r="E3">
+        <v>0.35997505600000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.62175669499999997</v>
+      </c>
+      <c r="C4">
+        <v>0.533678443</v>
+      </c>
+      <c r="D4">
+        <v>0.44974012800000002</v>
+      </c>
+      <c r="E4">
+        <v>0.37655398200000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.67505156300000002</v>
+      </c>
+      <c r="C5">
+        <v>0.56325018999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.46362998999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.38267277999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.710412775</v>
+      </c>
+      <c r="C6">
+        <v>0.57913150800000002</v>
+      </c>
+      <c r="D6">
+        <v>0.46956710400000001</v>
+      </c>
+      <c r="E6">
+        <v>0.38480203099999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.73351872600000001</v>
+      </c>
+      <c r="C7">
+        <v>0.58725173900000005</v>
+      </c>
+      <c r="D7">
+        <v>0.47194545999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.38550765799999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.74851463699999998</v>
+      </c>
+      <c r="C8">
+        <v>0.59130121999999996</v>
+      </c>
+      <c r="D8">
+        <v>0.47286149900000002</v>
+      </c>
+      <c r="E8">
+        <v>0.38573382000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.75821261600000001</v>
+      </c>
+      <c r="C9">
+        <v>0.59329560400000003</v>
+      </c>
+      <c r="D9">
+        <v>0.47320574700000001</v>
+      </c>
+      <c r="E9">
+        <v>0.38580463100000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.76447142700000004</v>
+      </c>
+      <c r="C10">
+        <v>0.594271828</v>
+      </c>
+      <c r="D10">
+        <v>0.47333304599999998</v>
+      </c>
+      <c r="E10">
+        <v>0.385826428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.76850553899999996</v>
+      </c>
+      <c r="C11">
+        <v>0.59474824000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.47337960000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.38583305099999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.77110362099999996</v>
+      </c>
+      <c r="C12">
+        <v>0.59498039400000002</v>
+      </c>
+      <c r="D12">
+        <v>0.47339649099999997</v>
+      </c>
+      <c r="E12">
+        <v>0.38583504400000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.77277599600000002</v>
+      </c>
+      <c r="C13">
+        <v>0.59509344200000003</v>
+      </c>
+      <c r="D13">
+        <v>0.47340258499999999</v>
+      </c>
+      <c r="E13">
+        <v>0.38583563799999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.77385213900000005</v>
+      </c>
+      <c r="C14">
+        <v>0.59514847100000001</v>
+      </c>
+      <c r="D14">
+        <v>0.473404773</v>
+      </c>
+      <c r="E14">
+        <v>0.38583581500000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.77454446899999996</v>
+      </c>
+      <c r="C15">
+        <v>0.59517525299999996</v>
+      </c>
+      <c r="D15">
+        <v>0.47340555699999998</v>
+      </c>
+      <c r="E15">
+        <v>0.385835867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.77498981499999997</v>
+      </c>
+      <c r="C16">
+        <v>0.59518828700000004</v>
+      </c>
+      <c r="D16">
+        <v>0.473405837</v>
+      </c>
+      <c r="E16">
+        <v>0.38583588200000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.77527626199999999</v>
+      </c>
+      <c r="C17">
+        <v>0.59519462999999995</v>
+      </c>
+      <c r="D17">
+        <v>0.47340593600000003</v>
+      </c>
+      <c r="E17">
+        <v>0.38583588600000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.77546049399999994</v>
+      </c>
+      <c r="C18">
+        <v>0.59519771600000004</v>
+      </c>
+      <c r="D18">
+        <v>0.47340597200000001</v>
+      </c>
+      <c r="E18">
+        <v>0.38583588800000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.77557898000000003</v>
+      </c>
+      <c r="C19">
+        <v>0.59519921799999997</v>
+      </c>
+      <c r="D19">
+        <v>0.47340598499999997</v>
+      </c>
+      <c r="E19">
+        <v>0.38583588800000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.77565518200000005</v>
+      </c>
+      <c r="C20">
+        <v>0.59519994899999995</v>
+      </c>
+      <c r="D20">
+        <v>0.47340598900000003</v>
+      </c>
+      <c r="E20">
+        <v>0.38583588800000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.77570418900000004</v>
+      </c>
+      <c r="C21">
+        <v>0.59520030499999999</v>
+      </c>
+      <c r="D21">
+        <v>0.47340599100000003</v>
+      </c>
+      <c r="E21">
+        <v>0.38583588800000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.83066700199999999</v>
+      </c>
+      <c r="C2">
+        <v>0.69762962100000003</v>
+      </c>
+      <c r="D2">
+        <v>0.592785954</v>
+      </c>
+      <c r="E2">
+        <v>0.50883633500000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.62512023900000002</v>
+      </c>
+      <c r="C3">
+        <v>0.52285305299999996</v>
+      </c>
+      <c r="D3">
+        <v>0.439073826</v>
+      </c>
+      <c r="E3">
+        <v>0.37078285599999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.46794487600000001</v>
+      </c>
+      <c r="C4">
+        <v>0.40757837800000002</v>
+      </c>
+      <c r="D4">
+        <v>0.36077814499999999</v>
+      </c>
+      <c r="E4">
+        <v>0.31819877800000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.35940524499999998</v>
+      </c>
+      <c r="C5">
+        <v>0.33961739299999999</v>
+      </c>
+      <c r="D5">
+        <v>0.323507869</v>
+      </c>
+      <c r="E5">
+        <v>0.298426105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.28736646300000002</v>
+      </c>
+      <c r="C6">
+        <v>0.30302831800000002</v>
+      </c>
+      <c r="D6">
+        <v>0.30746463699999999</v>
+      </c>
+      <c r="E6">
+        <v>0.29146529999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.24029082199999999</v>
+      </c>
+      <c r="C7">
+        <v>0.28429929799999998</v>
+      </c>
+      <c r="D7">
+        <v>0.30101082099999998</v>
+      </c>
+      <c r="E7">
+        <v>0.28914095299999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.209737864</v>
+      </c>
+      <c r="C8">
+        <v>0.27495454200000002</v>
+      </c>
+      <c r="D8">
+        <v>0.298518424</v>
+      </c>
+      <c r="E8">
+        <v>0.28839207500000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.18997892399999999</v>
+      </c>
+      <c r="C9">
+        <v>0.27035109400000001</v>
+      </c>
+      <c r="D9">
+        <v>0.29758007600000003</v>
+      </c>
+      <c r="E9">
+        <v>0.28815670599999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.17722703100000001</v>
+      </c>
+      <c r="C10">
+        <v>0.26809750599999999</v>
+      </c>
+      <c r="D10">
+        <v>0.29723264399999999</v>
+      </c>
+      <c r="E10">
+        <v>0.28808404700000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.16900780500000001</v>
+      </c>
+      <c r="C11">
+        <v>0.266997659</v>
+      </c>
+      <c r="D11">
+        <v>0.29710546799999998</v>
+      </c>
+      <c r="E11">
+        <v>0.28806191799999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.16371438999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.26646168999999997</v>
+      </c>
+      <c r="D12">
+        <v>0.29705929399999997</v>
+      </c>
+      <c r="E12">
+        <v>0.28805524900000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.16030704100000001</v>
+      </c>
+      <c r="C13">
+        <v>0.26620069800000001</v>
+      </c>
+      <c r="D13">
+        <v>0.297042629</v>
+      </c>
+      <c r="E13">
+        <v>0.28805325599999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.158114474</v>
+      </c>
+      <c r="C14">
+        <v>0.26607365100000002</v>
+      </c>
+      <c r="D14">
+        <v>0.29703664099999999</v>
+      </c>
+      <c r="E14">
+        <v>0.28805266400000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.15670389800000001</v>
+      </c>
+      <c r="C15">
+        <v>0.26601181800000001</v>
+      </c>
+      <c r="D15">
+        <v>0.29703449599999998</v>
+      </c>
+      <c r="E15">
+        <v>0.28805248900000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.15579653600000001</v>
+      </c>
+      <c r="C16">
+        <v>0.26598172599999997</v>
+      </c>
+      <c r="D16">
+        <v>0.29703373</v>
+      </c>
+      <c r="E16">
+        <v>0.28805243800000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.155212921</v>
+      </c>
+      <c r="C17">
+        <v>0.26596708200000002</v>
+      </c>
+      <c r="D17">
+        <v>0.297033457</v>
+      </c>
+      <c r="E17">
+        <v>0.288052423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.15483756100000001</v>
+      </c>
+      <c r="C18">
+        <v>0.265959956</v>
+      </c>
+      <c r="D18">
+        <v>0.29703336000000002</v>
+      </c>
+      <c r="E18">
+        <v>0.28805241799999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.15459615299999999</v>
+      </c>
+      <c r="C19">
+        <v>0.26595648900000002</v>
+      </c>
+      <c r="D19">
+        <v>0.29703332500000001</v>
+      </c>
+      <c r="E19">
+        <v>0.28805241700000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.15444089699999999</v>
+      </c>
+      <c r="C20">
+        <v>0.26595480100000002</v>
+      </c>
+      <c r="D20">
+        <v>0.29703331300000002</v>
+      </c>
+      <c r="E20">
+        <v>0.28805241700000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.15434104900000001</v>
+      </c>
+      <c r="C21">
+        <v>0.26595397999999998</v>
+      </c>
+      <c r="D21">
+        <v>0.297033308</v>
+      </c>
+      <c r="E21">
+        <v>0.28805241700000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel_Data/2.xlsx
+++ b/Excel_Data/2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9372" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Лист5" sheetId="5" r:id="rId1"/>
@@ -805,11 +805,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-807433328"/>
-        <c:axId val="-807425168"/>
+        <c:axId val="683412256"/>
+        <c:axId val="989084288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-807433328"/>
+        <c:axId val="683412256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +852,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-807425168"/>
+        <c:crossAx val="989084288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -860,7 +860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-807425168"/>
+        <c:axId val="989084288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +911,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-807433328"/>
+        <c:crossAx val="683412256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1685,11 +1685,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-804421456"/>
-        <c:axId val="-804414384"/>
+        <c:axId val="989464720"/>
+        <c:axId val="989456016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-804421456"/>
+        <c:axId val="989464720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1732,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804414384"/>
+        <c:crossAx val="989456016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1740,7 +1740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-804414384"/>
+        <c:axId val="989456016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,7 +1791,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804421456"/>
+        <c:crossAx val="989464720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1805,7 +1805,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2289,11 +2288,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-815684864"/>
-        <c:axId val="-815687040"/>
+        <c:axId val="989082112"/>
+        <c:axId val="989081568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-815684864"/>
+        <c:axId val="989082112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2336,7 +2335,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-815687040"/>
+        <c:crossAx val="989081568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2344,7 +2343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-815687040"/>
+        <c:axId val="989081568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,7 +2394,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-815684864"/>
+        <c:crossAx val="989082112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3169,11 +3168,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-815688128"/>
-        <c:axId val="-815680512"/>
+        <c:axId val="989083744"/>
+        <c:axId val="989085376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-815688128"/>
+        <c:axId val="989083744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3216,7 +3215,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-815680512"/>
+        <c:crossAx val="989085376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3224,7 +3223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-815680512"/>
+        <c:axId val="989085376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,7 +3274,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-815688128"/>
+        <c:crossAx val="989083744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4049,11 +4048,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-815676160"/>
-        <c:axId val="-815689216"/>
+        <c:axId val="989085920"/>
+        <c:axId val="989082656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-815676160"/>
+        <c:axId val="989085920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4096,7 +4095,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-815689216"/>
+        <c:crossAx val="989082656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4104,7 +4103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-815689216"/>
+        <c:axId val="989082656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4155,7 +4154,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-815676160"/>
+        <c:crossAx val="989085920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4929,11 +4928,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-815686496"/>
-        <c:axId val="-815678880"/>
+        <c:axId val="989452752"/>
+        <c:axId val="989454928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-815686496"/>
+        <c:axId val="989452752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4976,7 +4975,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-815678880"/>
+        <c:crossAx val="989454928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4984,7 +4983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-815678880"/>
+        <c:axId val="989454928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5035,7 +5034,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-815686496"/>
+        <c:crossAx val="989452752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5840,11 +5839,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-807432240"/>
-        <c:axId val="-807424080"/>
+        <c:axId val="989459280"/>
+        <c:axId val="989457104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-807432240"/>
+        <c:axId val="989459280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5887,7 +5886,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-807424080"/>
+        <c:crossAx val="989457104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5895,7 +5894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-807424080"/>
+        <c:axId val="989457104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5946,7 +5945,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-807432240"/>
+        <c:crossAx val="989459280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6720,11 +6719,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1119218208"/>
-        <c:axId val="-1119223104"/>
+        <c:axId val="989461456"/>
+        <c:axId val="989458192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1119218208"/>
+        <c:axId val="989461456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6767,7 +6766,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1119223104"/>
+        <c:crossAx val="989458192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6775,7 +6774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1119223104"/>
+        <c:axId val="989458192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6826,7 +6825,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1119218208"/>
+        <c:crossAx val="989461456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6840,7 +6839,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6922,7 +6920,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7631,11 +7628,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-804411664"/>
-        <c:axId val="-804412752"/>
+        <c:axId val="989460912"/>
+        <c:axId val="989454384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-804411664"/>
+        <c:axId val="989460912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7678,7 +7675,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804412752"/>
+        <c:crossAx val="989454384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7686,7 +7683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-804412752"/>
+        <c:axId val="989454384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7737,7 +7734,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804411664"/>
+        <c:crossAx val="989460912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7751,7 +7748,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8511,11 +8507,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-804424176"/>
-        <c:axId val="-804424720"/>
+        <c:axId val="989467440"/>
+        <c:axId val="989464176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-804424176"/>
+        <c:axId val="989467440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8558,7 +8554,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804424720"/>
+        <c:crossAx val="989464176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8566,7 +8562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-804424720"/>
+        <c:axId val="989464176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8617,7 +8613,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-804424176"/>
+        <c:crossAx val="989467440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8631,7 +8627,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14873,7 +14868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
@@ -15246,7 +15241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
